--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58700</v>
+        <v>55600</v>
       </c>
       <c r="E8" s="3">
-        <v>50700</v>
+        <v>57300</v>
       </c>
       <c r="F8" s="3">
-        <v>46300</v>
+        <v>49500</v>
       </c>
       <c r="G8" s="3">
-        <v>42800</v>
+        <v>45200</v>
       </c>
       <c r="H8" s="3">
-        <v>43500</v>
+        <v>41700</v>
       </c>
       <c r="I8" s="3">
-        <v>40400</v>
+        <v>42400</v>
       </c>
       <c r="J8" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K8" s="3">
         <v>37700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="E9" s="3">
-        <v>15400</v>
+        <v>16200</v>
       </c>
       <c r="F9" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="G9" s="3">
-        <v>16000</v>
+        <v>14800</v>
       </c>
       <c r="H9" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="I9" s="3">
-        <v>13900</v>
+        <v>15300</v>
       </c>
       <c r="J9" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K9" s="3">
         <v>13300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="E10" s="3">
-        <v>35300</v>
+        <v>41000</v>
       </c>
       <c r="F10" s="3">
-        <v>31200</v>
+        <v>34400</v>
       </c>
       <c r="G10" s="3">
-        <v>26700</v>
+        <v>30400</v>
       </c>
       <c r="H10" s="3">
-        <v>27800</v>
+        <v>26100</v>
       </c>
       <c r="I10" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="J10" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K10" s="3">
         <v>24300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E12" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="F12" s="3">
         <v>5800</v>
       </c>
       <c r="G12" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="H12" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="I12" s="3">
         <v>6400</v>
       </c>
       <c r="J12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,25 +985,28 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -1004,8 +1023,8 @@
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>59600</v>
+        <v>55900</v>
       </c>
       <c r="E17" s="3">
-        <v>55600</v>
+        <v>58100</v>
       </c>
       <c r="F17" s="3">
-        <v>55100</v>
+        <v>54300</v>
       </c>
       <c r="G17" s="3">
-        <v>62300</v>
+        <v>53700</v>
       </c>
       <c r="H17" s="3">
-        <v>56200</v>
+        <v>60800</v>
       </c>
       <c r="I17" s="3">
-        <v>51400</v>
+        <v>54800</v>
       </c>
       <c r="J17" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K17" s="3">
         <v>53500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
-        <v>-4900</v>
-      </c>
       <c r="F18" s="3">
-        <v>-8700</v>
+        <v>-4800</v>
       </c>
       <c r="G18" s="3">
-        <v>-19600</v>
+        <v>-8500</v>
       </c>
       <c r="H18" s="3">
-        <v>-12700</v>
+        <v>-19100</v>
       </c>
       <c r="I18" s="3">
-        <v>-11000</v>
+        <v>-12400</v>
       </c>
       <c r="J18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-20400</v>
       </c>
       <c r="N18" s="3">
         <v>-20400</v>
       </c>
       <c r="O18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-21900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>-4500</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>-8900</v>
+        <v>-4400</v>
       </c>
       <c r="G23" s="3">
-        <v>-19900</v>
+        <v>-8700</v>
       </c>
       <c r="H23" s="3">
-        <v>-12800</v>
+        <v>-19500</v>
       </c>
       <c r="I23" s="3">
-        <v>-10400</v>
+        <v>-12500</v>
       </c>
       <c r="J23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,7 +1414,7 @@
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1378,19 +1423,19 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
-        <v>-4600</v>
+        <v>-700</v>
       </c>
       <c r="F26" s="3">
-        <v>-9100</v>
+        <v>-4500</v>
       </c>
       <c r="G26" s="3">
-        <v>-20100</v>
+        <v>-8900</v>
       </c>
       <c r="H26" s="3">
-        <v>-13000</v>
+        <v>-19600</v>
       </c>
       <c r="I26" s="3">
-        <v>-10600</v>
+        <v>-12700</v>
       </c>
       <c r="J26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>-4600</v>
+        <v>-700</v>
       </c>
       <c r="F27" s="3">
-        <v>-9100</v>
+        <v>-4500</v>
       </c>
       <c r="G27" s="3">
-        <v>-20100</v>
+        <v>-8900</v>
       </c>
       <c r="H27" s="3">
-        <v>-13000</v>
+        <v>-19600</v>
       </c>
       <c r="I27" s="3">
-        <v>-10600</v>
+        <v>-12700</v>
       </c>
       <c r="J27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>-4600</v>
+        <v>-700</v>
       </c>
       <c r="F33" s="3">
-        <v>-9100</v>
+        <v>-4500</v>
       </c>
       <c r="G33" s="3">
-        <v>-20100</v>
+        <v>-8900</v>
       </c>
       <c r="H33" s="3">
-        <v>-13000</v>
+        <v>-19600</v>
       </c>
       <c r="I33" s="3">
-        <v>-10600</v>
+        <v>-12700</v>
       </c>
       <c r="J33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>-4600</v>
+        <v>-700</v>
       </c>
       <c r="F35" s="3">
-        <v>-9100</v>
+        <v>-4500</v>
       </c>
       <c r="G35" s="3">
-        <v>-20100</v>
+        <v>-8900</v>
       </c>
       <c r="H35" s="3">
-        <v>-13000</v>
+        <v>-19600</v>
       </c>
       <c r="I35" s="3">
-        <v>-10600</v>
+        <v>-12700</v>
       </c>
       <c r="J35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,85 +2052,89 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>63400</v>
+        <v>68200</v>
       </c>
       <c r="E41" s="3">
-        <v>63400</v>
+        <v>61800</v>
       </c>
       <c r="F41" s="3">
-        <v>63300</v>
+        <v>61900</v>
       </c>
       <c r="G41" s="3">
-        <v>82600</v>
+        <v>61700</v>
       </c>
       <c r="H41" s="3">
-        <v>84900</v>
+        <v>80600</v>
       </c>
       <c r="I41" s="3">
-        <v>79000</v>
+        <v>82800</v>
       </c>
       <c r="J41" s="3">
+        <v>77100</v>
+      </c>
+      <c r="K41" s="3">
         <v>74400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>96500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66700</v>
+        <v>63400</v>
       </c>
       <c r="E42" s="3">
-        <v>49300</v>
+        <v>65000</v>
       </c>
       <c r="F42" s="3">
-        <v>36800</v>
+        <v>48100</v>
       </c>
       <c r="G42" s="3">
-        <v>19600</v>
+        <v>35900</v>
       </c>
       <c r="H42" s="3">
-        <v>9400</v>
+        <v>19100</v>
       </c>
       <c r="I42" s="3">
-        <v>7300</v>
+        <v>9200</v>
       </c>
       <c r="J42" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11600</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,23 +2191,26 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2125,8 +2220,8 @@
       <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2143,96 +2238,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36900</v>
+        <v>35000</v>
       </c>
       <c r="E45" s="3">
-        <v>37900</v>
+        <v>36000</v>
       </c>
       <c r="F45" s="3">
-        <v>37200</v>
+        <v>37000</v>
       </c>
       <c r="G45" s="3">
-        <v>34800</v>
+        <v>36300</v>
       </c>
       <c r="H45" s="3">
-        <v>33700</v>
+        <v>33900</v>
       </c>
       <c r="I45" s="3">
-        <v>29000</v>
+        <v>32900</v>
       </c>
       <c r="J45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K45" s="3">
         <v>24900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>12600</v>
       </c>
       <c r="L45" s="3">
         <v>12600</v>
       </c>
       <c r="M45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="N45" s="3">
         <v>9700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>167100</v>
+        <v>166600</v>
       </c>
       <c r="E46" s="3">
-        <v>150600</v>
+        <v>163000</v>
       </c>
       <c r="F46" s="3">
-        <v>137300</v>
+        <v>146900</v>
       </c>
       <c r="G46" s="3">
-        <v>137000</v>
+        <v>134000</v>
       </c>
       <c r="H46" s="3">
-        <v>128000</v>
+        <v>133600</v>
       </c>
       <c r="I46" s="3">
-        <v>115300</v>
+        <v>124900</v>
       </c>
       <c r="J46" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K46" s="3">
         <v>103700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>105100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>110000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>107400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>103700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2379,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13000</v>
+        <v>10800</v>
       </c>
       <c r="E48" s="3">
-        <v>10900</v>
+        <v>12600</v>
       </c>
       <c r="F48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G48" s="3">
-        <v>5100</v>
+        <v>10700</v>
       </c>
       <c r="H48" s="3">
         <v>4900</v>
       </c>
       <c r="I48" s="3">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="J48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
-        <v>2000</v>
-      </c>
       <c r="F49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
-        <v>2300</v>
-      </c>
       <c r="H49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I49" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="J49" s="3">
         <v>1900</v>
       </c>
       <c r="K49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L49" s="3">
         <v>2100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
-        <v>900</v>
-      </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1700</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
       </c>
       <c r="K52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L52" s="3">
         <v>1800</v>
       </c>
       <c r="M52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N52" s="3">
         <v>2100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1800</v>
       </c>
       <c r="O52" s="3">
         <v>1800</v>
       </c>
       <c r="P52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>182900</v>
+        <v>196200</v>
       </c>
       <c r="E54" s="3">
-        <v>164600</v>
+        <v>178400</v>
       </c>
       <c r="F54" s="3">
-        <v>151300</v>
+        <v>160600</v>
       </c>
       <c r="G54" s="3">
-        <v>144900</v>
+        <v>147500</v>
       </c>
       <c r="H54" s="3">
-        <v>137000</v>
+        <v>141400</v>
       </c>
       <c r="I54" s="3">
-        <v>124500</v>
+        <v>133700</v>
       </c>
       <c r="J54" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K54" s="3">
         <v>113800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,35 +2793,38 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>2300</v>
       </c>
       <c r="E58" s="3">
-        <v>6100</v>
+        <v>4200</v>
       </c>
       <c r="F58" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>6000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="3">
-        <v>3600</v>
+      <c r="I58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2707,96 +2840,105 @@
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>322600</v>
+        <v>336200</v>
       </c>
       <c r="E59" s="3">
-        <v>305100</v>
+        <v>314700</v>
       </c>
       <c r="F59" s="3">
-        <v>286900</v>
+        <v>297600</v>
       </c>
       <c r="G59" s="3">
-        <v>270500</v>
+        <v>279800</v>
       </c>
       <c r="H59" s="3">
-        <v>242300</v>
+        <v>263900</v>
       </c>
       <c r="I59" s="3">
-        <v>227100</v>
+        <v>236300</v>
       </c>
       <c r="J59" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K59" s="3">
         <v>210900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>211400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>192100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>172400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>143000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>122000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>326900</v>
+        <v>338500</v>
       </c>
       <c r="E60" s="3">
-        <v>311200</v>
+        <v>318900</v>
       </c>
       <c r="F60" s="3">
-        <v>294700</v>
+        <v>303600</v>
       </c>
       <c r="G60" s="3">
-        <v>270500</v>
+        <v>287500</v>
       </c>
       <c r="H60" s="3">
-        <v>242300</v>
+        <v>263900</v>
       </c>
       <c r="I60" s="3">
-        <v>230700</v>
+        <v>236300</v>
       </c>
       <c r="J60" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K60" s="3">
         <v>211700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>192100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>143000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>122000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>11000</v>
+        <v>9700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2839,52 +2981,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5300</v>
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
-        <v>3600</v>
+        <v>5100</v>
       </c>
       <c r="F62" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>3900</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="J62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>332200</v>
+        <v>342700</v>
       </c>
       <c r="E66" s="3">
-        <v>314900</v>
+        <v>324000</v>
       </c>
       <c r="F66" s="3">
-        <v>298700</v>
+        <v>307200</v>
       </c>
       <c r="G66" s="3">
-        <v>283100</v>
+        <v>291400</v>
       </c>
       <c r="H66" s="3">
-        <v>256800</v>
+        <v>276100</v>
       </c>
       <c r="I66" s="3">
-        <v>233800</v>
+        <v>250500</v>
       </c>
       <c r="J66" s="3">
-        <v>215500</v>
+        <v>228000</v>
       </c>
       <c r="K66" s="3">
         <v>215500</v>
       </c>
       <c r="L66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="M66" s="3">
         <v>197000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>178400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>150100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>127200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,13 +3423,16 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>16</v>
+      <c r="D72" s="3">
+        <v>-307800</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>16</v>
@@ -3279,26 +3452,29 @@
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="3">
         <v>-260300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="3">
         <v>-170600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-149300</v>
+        <v>-146500</v>
       </c>
       <c r="E76" s="3">
-        <v>-150300</v>
+        <v>-145600</v>
       </c>
       <c r="F76" s="3">
-        <v>-147400</v>
+        <v>-146600</v>
       </c>
       <c r="G76" s="3">
-        <v>-138100</v>
+        <v>-143800</v>
       </c>
       <c r="H76" s="3">
-        <v>-119800</v>
+        <v>-134700</v>
       </c>
       <c r="I76" s="3">
-        <v>-109200</v>
+        <v>-116800</v>
       </c>
       <c r="J76" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-101700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-99200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-75900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-55000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-33700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>-4600</v>
+        <v>-700</v>
       </c>
       <c r="F81" s="3">
-        <v>-9100</v>
+        <v>-4500</v>
       </c>
       <c r="G81" s="3">
-        <v>-20100</v>
+        <v>-8900</v>
       </c>
       <c r="H81" s="3">
-        <v>-13000</v>
+        <v>-19600</v>
       </c>
       <c r="I81" s="3">
-        <v>-10600</v>
+        <v>-12700</v>
       </c>
       <c r="J81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55600</v>
+        <v>70700</v>
       </c>
       <c r="E8" s="3">
-        <v>57300</v>
+        <v>57100</v>
       </c>
       <c r="F8" s="3">
-        <v>49500</v>
+        <v>59400</v>
       </c>
       <c r="G8" s="3">
-        <v>45200</v>
+        <v>51300</v>
       </c>
       <c r="H8" s="3">
-        <v>41700</v>
+        <v>46500</v>
       </c>
       <c r="I8" s="3">
-        <v>42400</v>
+        <v>43300</v>
       </c>
       <c r="J8" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K8" s="3">
         <v>39400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15500</v>
+        <v>20900</v>
       </c>
       <c r="E9" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I9" s="3">
         <v>16200</v>
       </c>
-      <c r="F9" s="3">
-        <v>15100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>14800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>15300</v>
-      </c>
       <c r="J9" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K9" s="3">
         <v>13500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>40100</v>
+        <v>49800</v>
       </c>
       <c r="E10" s="3">
         <v>41000</v>
       </c>
       <c r="F10" s="3">
-        <v>34400</v>
+        <v>42600</v>
       </c>
       <c r="G10" s="3">
-        <v>30400</v>
+        <v>35700</v>
       </c>
       <c r="H10" s="3">
-        <v>26100</v>
+        <v>31100</v>
       </c>
       <c r="I10" s="3">
         <v>27100</v>
       </c>
       <c r="J10" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K10" s="3">
         <v>25900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,43 +920,46 @@
         <v>5400</v>
       </c>
       <c r="F12" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G12" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="P12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>6700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,28 +1005,31 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -1026,8 +1046,8 @@
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>55900</v>
+        <v>64200</v>
       </c>
       <c r="E17" s="3">
-        <v>58100</v>
+        <v>58000</v>
       </c>
       <c r="F17" s="3">
-        <v>54300</v>
+        <v>60300</v>
       </c>
       <c r="G17" s="3">
-        <v>53700</v>
+        <v>56300</v>
       </c>
       <c r="H17" s="3">
-        <v>60800</v>
+        <v>55800</v>
       </c>
       <c r="I17" s="3">
-        <v>54800</v>
+        <v>63100</v>
       </c>
       <c r="J17" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K17" s="3">
         <v>50100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>48900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>40600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>6500</v>
       </c>
       <c r="E18" s="3">
         <v>-900</v>
       </c>
       <c r="F18" s="3">
-        <v>-4800</v>
+        <v>-900</v>
       </c>
       <c r="G18" s="3">
-        <v>-8500</v>
+        <v>-5000</v>
       </c>
       <c r="H18" s="3">
-        <v>-19100</v>
+        <v>-9300</v>
       </c>
       <c r="I18" s="3">
-        <v>-12400</v>
+        <v>-19800</v>
       </c>
       <c r="J18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-20400</v>
       </c>
       <c r="O18" s="3">
         <v>-20400</v>
       </c>
       <c r="P18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,60 +1392,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>7600</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-4400</v>
+        <v>-600</v>
       </c>
       <c r="G23" s="3">
-        <v>-8700</v>
+        <v>-4500</v>
       </c>
       <c r="H23" s="3">
-        <v>-19500</v>
+        <v>-9500</v>
       </c>
       <c r="I23" s="3">
-        <v>-12500</v>
+        <v>-20200</v>
       </c>
       <c r="J23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-1200</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1417,7 +1463,7 @@
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1426,19 +1472,19 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-700</v>
-      </c>
       <c r="F26" s="3">
-        <v>-4500</v>
+        <v>-800</v>
       </c>
       <c r="G26" s="3">
-        <v>-8900</v>
+        <v>-4700</v>
       </c>
       <c r="H26" s="3">
-        <v>-19600</v>
+        <v>-9600</v>
       </c>
       <c r="I26" s="3">
-        <v>-12700</v>
+        <v>-20300</v>
       </c>
       <c r="J26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-700</v>
-      </c>
       <c r="F27" s="3">
-        <v>-4500</v>
+        <v>-800</v>
       </c>
       <c r="G27" s="3">
-        <v>-8900</v>
+        <v>-4700</v>
       </c>
       <c r="H27" s="3">
-        <v>-19600</v>
+        <v>-9600</v>
       </c>
       <c r="I27" s="3">
-        <v>-12700</v>
+        <v>-20300</v>
       </c>
       <c r="J27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,31 +1692,34 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-1500</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-700</v>
-      </c>
       <c r="F33" s="3">
-        <v>-4500</v>
+        <v>-800</v>
       </c>
       <c r="G33" s="3">
-        <v>-8900</v>
+        <v>-4700</v>
       </c>
       <c r="H33" s="3">
-        <v>-19600</v>
+        <v>-9600</v>
       </c>
       <c r="I33" s="3">
-        <v>-12700</v>
+        <v>-20300</v>
       </c>
       <c r="J33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-700</v>
-      </c>
       <c r="F35" s="3">
-        <v>-4500</v>
+        <v>-800</v>
       </c>
       <c r="G35" s="3">
-        <v>-8900</v>
+        <v>-4700</v>
       </c>
       <c r="H35" s="3">
-        <v>-19600</v>
+        <v>-9600</v>
       </c>
       <c r="I35" s="3">
-        <v>-12700</v>
+        <v>-20300</v>
       </c>
       <c r="J35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,91 +2139,95 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68200</v>
+        <v>79000</v>
       </c>
       <c r="E41" s="3">
-        <v>61800</v>
+        <v>70700</v>
       </c>
       <c r="F41" s="3">
-        <v>61900</v>
+        <v>64200</v>
       </c>
       <c r="G41" s="3">
-        <v>61700</v>
+        <v>64200</v>
       </c>
       <c r="H41" s="3">
-        <v>80600</v>
+        <v>64000</v>
       </c>
       <c r="I41" s="3">
-        <v>82800</v>
+        <v>83600</v>
       </c>
       <c r="J41" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K41" s="3">
         <v>77100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>85900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>96500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63400</v>
+        <v>65700</v>
       </c>
       <c r="E42" s="3">
-        <v>65000</v>
+        <v>65800</v>
       </c>
       <c r="F42" s="3">
-        <v>48100</v>
+        <v>67500</v>
       </c>
       <c r="G42" s="3">
-        <v>35900</v>
+        <v>49900</v>
       </c>
       <c r="H42" s="3">
-        <v>19100</v>
+        <v>37200</v>
       </c>
       <c r="I42" s="3">
-        <v>9200</v>
+        <v>19800</v>
       </c>
       <c r="J42" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K42" s="3">
         <v>7100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,26 +2287,29 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2223,8 +2319,8 @@
       <c r="K44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2241,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="E45" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="F45" s="3">
-        <v>37000</v>
+        <v>37400</v>
       </c>
       <c r="G45" s="3">
-        <v>36300</v>
+        <v>38400</v>
       </c>
       <c r="H45" s="3">
-        <v>33900</v>
+        <v>37700</v>
       </c>
       <c r="I45" s="3">
-        <v>32900</v>
+        <v>35200</v>
       </c>
       <c r="J45" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K45" s="3">
         <v>28300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>12600</v>
       </c>
       <c r="M45" s="3">
         <v>12600</v>
       </c>
       <c r="N45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="O45" s="3">
         <v>9700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>166600</v>
+        <v>180800</v>
       </c>
       <c r="E46" s="3">
-        <v>163000</v>
+        <v>172900</v>
       </c>
       <c r="F46" s="3">
-        <v>146900</v>
+        <v>169100</v>
       </c>
       <c r="G46" s="3">
-        <v>134000</v>
+        <v>152500</v>
       </c>
       <c r="H46" s="3">
-        <v>133600</v>
+        <v>139000</v>
       </c>
       <c r="I46" s="3">
-        <v>124900</v>
+        <v>138600</v>
       </c>
       <c r="J46" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K46" s="3">
         <v>112400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>103700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>105100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>110000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>113900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>107400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>103700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="E48" s="3">
-        <v>12600</v>
+        <v>11200</v>
       </c>
       <c r="F48" s="3">
-        <v>10700</v>
+        <v>13100</v>
       </c>
       <c r="G48" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="H48" s="3">
-        <v>4900</v>
+        <v>11100</v>
       </c>
       <c r="I48" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="J48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H49" s="3">
         <v>2200</v>
       </c>
       <c r="I49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J49" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
       </c>
       <c r="L49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M49" s="3">
         <v>2100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16800</v>
+        <v>32800</v>
       </c>
       <c r="E52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
-        <v>800</v>
-      </c>
       <c r="H52" s="3">
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1700</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
       </c>
       <c r="L52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M52" s="3">
         <v>1800</v>
       </c>
       <c r="N52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O52" s="3">
         <v>2100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1800</v>
       </c>
       <c r="P52" s="3">
         <v>1800</v>
       </c>
       <c r="Q52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>196200</v>
+        <v>227300</v>
       </c>
       <c r="E54" s="3">
-        <v>178400</v>
+        <v>203600</v>
       </c>
       <c r="F54" s="3">
-        <v>160600</v>
+        <v>185200</v>
       </c>
       <c r="G54" s="3">
-        <v>147500</v>
+        <v>166600</v>
       </c>
       <c r="H54" s="3">
-        <v>141400</v>
+        <v>153100</v>
       </c>
       <c r="I54" s="3">
-        <v>133700</v>
+        <v>146700</v>
       </c>
       <c r="J54" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K54" s="3">
         <v>121500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>116300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>123300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,38 +2927,41 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="F58" s="3">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
+        <v>6200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>7900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2843,102 +2977,111 @@
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>336200</v>
+        <v>364900</v>
       </c>
       <c r="E59" s="3">
-        <v>314700</v>
+        <v>348800</v>
       </c>
       <c r="F59" s="3">
-        <v>297600</v>
+        <v>326500</v>
       </c>
       <c r="G59" s="3">
-        <v>279800</v>
+        <v>308800</v>
       </c>
       <c r="H59" s="3">
-        <v>263900</v>
+        <v>290400</v>
       </c>
       <c r="I59" s="3">
-        <v>236300</v>
+        <v>273800</v>
       </c>
       <c r="J59" s="3">
+        <v>245200</v>
+      </c>
+      <c r="K59" s="3">
         <v>221500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>210900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>211400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>192100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>172400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>143000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>122000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>338500</v>
+        <v>364900</v>
       </c>
       <c r="E60" s="3">
-        <v>318900</v>
+        <v>351200</v>
       </c>
       <c r="F60" s="3">
-        <v>303600</v>
+        <v>330900</v>
       </c>
       <c r="G60" s="3">
-        <v>287500</v>
+        <v>315000</v>
       </c>
       <c r="H60" s="3">
-        <v>263900</v>
+        <v>298300</v>
       </c>
       <c r="I60" s="3">
-        <v>236300</v>
+        <v>273800</v>
       </c>
       <c r="J60" s="3">
+        <v>245200</v>
+      </c>
+      <c r="K60" s="3">
         <v>225000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>211700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>211400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>192100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>143000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>122000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2955,13 +3098,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2984,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="F62" s="3">
-        <v>3500</v>
+        <v>5300</v>
       </c>
       <c r="G62" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H62" s="3">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="I62" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="J62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>342700</v>
+        <v>369600</v>
       </c>
       <c r="E66" s="3">
-        <v>324000</v>
+        <v>355600</v>
       </c>
       <c r="F66" s="3">
-        <v>307200</v>
+        <v>336200</v>
       </c>
       <c r="G66" s="3">
-        <v>291400</v>
+        <v>318700</v>
       </c>
       <c r="H66" s="3">
-        <v>276100</v>
+        <v>302300</v>
       </c>
       <c r="I66" s="3">
-        <v>250500</v>
+        <v>286500</v>
       </c>
       <c r="J66" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K66" s="3">
         <v>228000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>215500</v>
       </c>
       <c r="L66" s="3">
         <v>215500</v>
       </c>
       <c r="M66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="N66" s="3">
         <v>197000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>178400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>150100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>127200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-307800</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3">
         <v>-260300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-170600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-146500</v>
+        <v>-142400</v>
       </c>
       <c r="E76" s="3">
-        <v>-145600</v>
+        <v>-152000</v>
       </c>
       <c r="F76" s="3">
-        <v>-146600</v>
+        <v>-151100</v>
       </c>
       <c r="G76" s="3">
-        <v>-143800</v>
+        <v>-152100</v>
       </c>
       <c r="H76" s="3">
-        <v>-134700</v>
+        <v>-149200</v>
       </c>
       <c r="I76" s="3">
-        <v>-116800</v>
+        <v>-139800</v>
       </c>
       <c r="J76" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="K76" s="3">
         <v>-106500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-101700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-99200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-75900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-55000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-33700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-700</v>
-      </c>
       <c r="F81" s="3">
-        <v>-4500</v>
+        <v>-800</v>
       </c>
       <c r="G81" s="3">
-        <v>-8900</v>
+        <v>-4700</v>
       </c>
       <c r="H81" s="3">
-        <v>-19600</v>
+        <v>-9600</v>
       </c>
       <c r="I81" s="3">
-        <v>-12700</v>
+        <v>-20300</v>
       </c>
       <c r="J81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70700</v>
+        <v>81900</v>
       </c>
       <c r="E8" s="3">
-        <v>57100</v>
+        <v>75100</v>
       </c>
       <c r="F8" s="3">
-        <v>59400</v>
+        <v>74100</v>
       </c>
       <c r="G8" s="3">
-        <v>51300</v>
+        <v>59800</v>
       </c>
       <c r="H8" s="3">
-        <v>46500</v>
+        <v>62200</v>
       </c>
       <c r="I8" s="3">
+        <v>53600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K8" s="3">
         <v>43300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>44000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>39400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>37700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>38700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>35000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>28500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>23200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>18600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20900</v>
+        <v>22300</v>
       </c>
       <c r="E9" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>21900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16400</v>
+      </c>
+      <c r="J9" s="3">
         <v>16100</v>
       </c>
-      <c r="F9" s="3">
-        <v>16800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>16200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>15900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>13400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>49800</v>
+        <v>59600</v>
       </c>
       <c r="E10" s="3">
-        <v>41000</v>
+        <v>53200</v>
       </c>
       <c r="F10" s="3">
-        <v>42600</v>
+        <v>52200</v>
       </c>
       <c r="G10" s="3">
-        <v>35700</v>
+        <v>42900</v>
       </c>
       <c r="H10" s="3">
-        <v>31100</v>
+        <v>44500</v>
       </c>
       <c r="I10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K10" s="3">
         <v>27100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>28100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>25900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>24300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>21700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>17900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>15200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>12000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="E12" s="3">
-        <v>5400</v>
+        <v>5900</v>
       </c>
       <c r="F12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="G12" s="3">
-        <v>6000</v>
-      </c>
       <c r="H12" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J12" s="3">
         <v>6200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6600</v>
       </c>
       <c r="K12" s="3">
         <v>6200</v>
       </c>
       <c r="L12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,34 +1042,40 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>16</v>
@@ -1049,17 +1089,23 @@
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>64200</v>
+        <v>78700</v>
       </c>
       <c r="E17" s="3">
-        <v>58000</v>
+        <v>70900</v>
       </c>
       <c r="F17" s="3">
-        <v>60300</v>
+        <v>67300</v>
       </c>
       <c r="G17" s="3">
-        <v>56300</v>
+        <v>60700</v>
       </c>
       <c r="H17" s="3">
+        <v>63200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>59000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>63100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>56900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>50100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>53500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>61400</v>
+      </c>
+      <c r="P17" s="3">
         <v>55800</v>
       </c>
-      <c r="I17" s="3">
-        <v>63100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>56900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>50100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>53500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>61400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>55800</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>48900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>43600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>40600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="E18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H18" s="3">
-        <v>-9300</v>
+        <v>-1000</v>
       </c>
       <c r="I18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-19800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-12900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-15900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-22700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-20700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-20400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-21900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,58 +1311,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-800</v>
       </c>
       <c r="N20" s="3">
         <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-400</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,66 +1475,78 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7600</v>
+        <v>5000</v>
       </c>
       <c r="E23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4500</v>
-      </c>
       <c r="H23" s="3">
-        <v>-9500</v>
+        <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-20200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-16000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-23500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-20900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-20500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-22400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1200</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -1466,22 +1558,22 @@
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
@@ -1490,13 +1582,19 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8800</v>
+        <v>4800</v>
       </c>
       <c r="E26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4700</v>
-      </c>
       <c r="H26" s="3">
-        <v>-9600</v>
+        <v>-900</v>
       </c>
       <c r="I26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-20300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-23700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-22400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8800</v>
+        <v>4800</v>
       </c>
       <c r="E27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4700</v>
-      </c>
       <c r="H27" s="3">
-        <v>-9600</v>
+        <v>-900</v>
       </c>
       <c r="I27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-20300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-23700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-20700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-22400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,38 +1811,44 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>800</v>
       </c>
       <c r="N32" s="3">
         <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>800</v>
+      </c>
+      <c r="P32" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>400</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>400</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7400</v>
+        <v>4800</v>
       </c>
       <c r="E33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4700</v>
-      </c>
       <c r="H33" s="3">
-        <v>-9600</v>
+        <v>-900</v>
       </c>
       <c r="I33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-20300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-16200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-23700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-20700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-22400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7400</v>
+        <v>4800</v>
       </c>
       <c r="E35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4700</v>
-      </c>
       <c r="H35" s="3">
-        <v>-9600</v>
+        <v>-900</v>
       </c>
       <c r="I35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-20300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-16200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-23700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-20700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-22400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,99 +2312,107 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>79000</v>
+        <v>90600</v>
       </c>
       <c r="E41" s="3">
-        <v>70700</v>
+        <v>81800</v>
       </c>
       <c r="F41" s="3">
-        <v>64200</v>
+        <v>82800</v>
       </c>
       <c r="G41" s="3">
-        <v>64200</v>
+        <v>74100</v>
       </c>
       <c r="H41" s="3">
-        <v>64000</v>
+        <v>67200</v>
       </c>
       <c r="I41" s="3">
+        <v>67300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K41" s="3">
         <v>83600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>85900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>77100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>74400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>77600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>85900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>104100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>96500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>94100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>65700</v>
+        <v>67200</v>
       </c>
       <c r="E42" s="3">
-        <v>65800</v>
+        <v>67200</v>
       </c>
       <c r="F42" s="3">
-        <v>67500</v>
+        <v>68900</v>
       </c>
       <c r="G42" s="3">
-        <v>49900</v>
+        <v>68900</v>
       </c>
       <c r="H42" s="3">
-        <v>37200</v>
+        <v>70700</v>
       </c>
       <c r="I42" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K42" s="3">
         <v>19800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>9500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>7100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>14900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>11600</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
@@ -2240,8 +2420,14 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,16 +2476,22 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -2310,11 +2502,11 @@
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>16</v>
@@ -2322,11 +2514,11 @@
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2340,108 +2532,126 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36000</v>
+        <v>44400</v>
       </c>
       <c r="E45" s="3">
-        <v>36300</v>
+        <v>40800</v>
       </c>
       <c r="F45" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="G45" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="H45" s="3">
-        <v>37700</v>
+        <v>39100</v>
       </c>
       <c r="I45" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K45" s="3">
         <v>35200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>34100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>28300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>24900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>12600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>12600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>9700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>9600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>180800</v>
+        <v>202500</v>
       </c>
       <c r="E46" s="3">
-        <v>172900</v>
+        <v>190000</v>
       </c>
       <c r="F46" s="3">
-        <v>169100</v>
+        <v>189400</v>
       </c>
       <c r="G46" s="3">
-        <v>152500</v>
+        <v>181100</v>
       </c>
       <c r="H46" s="3">
-        <v>139000</v>
+        <v>177100</v>
       </c>
       <c r="I46" s="3">
+        <v>159700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>145600</v>
+      </c>
+      <c r="K46" s="3">
         <v>138600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>129600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>112400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>103700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>105100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>110000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>113900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>107400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>103700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2700,70 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11800</v>
+        <v>13600</v>
       </c>
       <c r="E48" s="3">
-        <v>11200</v>
+        <v>12400</v>
       </c>
       <c r="F48" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="G48" s="3">
-        <v>11100</v>
+        <v>11700</v>
       </c>
       <c r="H48" s="3">
-        <v>11100</v>
+        <v>13700</v>
       </c>
       <c r="I48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,49 +2771,55 @@
         <v>1900</v>
       </c>
       <c r="E49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="3">
         <v>2100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>2300</v>
       </c>
       <c r="K49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32800</v>
+        <v>87200</v>
       </c>
       <c r="E52" s="3">
-        <v>17500</v>
+        <v>69600</v>
       </c>
       <c r="F52" s="3">
+        <v>34300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2100</v>
       </c>
       <c r="P52" s="3">
         <v>1800</v>
       </c>
       <c r="Q52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R52" s="3">
         <v>1800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>227300</v>
+        <v>305200</v>
       </c>
       <c r="E54" s="3">
-        <v>203600</v>
+        <v>273900</v>
       </c>
       <c r="F54" s="3">
-        <v>185200</v>
+        <v>238000</v>
       </c>
       <c r="G54" s="3">
-        <v>166600</v>
+        <v>213200</v>
       </c>
       <c r="H54" s="3">
-        <v>153100</v>
+        <v>193900</v>
       </c>
       <c r="I54" s="3">
+        <v>174500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K54" s="3">
         <v>146700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>138700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>121500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>113800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>116300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>121100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>123300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>116300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>112800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,34 +3207,34 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>6200</v>
+        <v>2500</v>
       </c>
       <c r="H58" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I58" s="3" t="s">
+        <v>4600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
@@ -2980,108 +3248,126 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>364900</v>
+        <v>432400</v>
       </c>
       <c r="E59" s="3">
-        <v>348800</v>
+        <v>405300</v>
       </c>
       <c r="F59" s="3">
-        <v>326500</v>
+        <v>382200</v>
       </c>
       <c r="G59" s="3">
-        <v>308800</v>
+        <v>365400</v>
       </c>
       <c r="H59" s="3">
-        <v>290400</v>
+        <v>342000</v>
       </c>
       <c r="I59" s="3">
+        <v>323500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>304100</v>
+      </c>
+      <c r="K59" s="3">
         <v>273800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>245200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>221500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>210900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>211400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>192100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>172400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>143000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>122000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>364900</v>
+        <v>432400</v>
       </c>
       <c r="E60" s="3">
-        <v>351200</v>
+        <v>405300</v>
       </c>
       <c r="F60" s="3">
-        <v>330900</v>
+        <v>382200</v>
       </c>
       <c r="G60" s="3">
-        <v>315000</v>
+        <v>367900</v>
       </c>
       <c r="H60" s="3">
-        <v>298300</v>
+        <v>346600</v>
       </c>
       <c r="I60" s="3">
+        <v>330000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>312500</v>
+      </c>
+      <c r="K60" s="3">
         <v>273800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>245200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>225000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>211700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>211400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>192100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>172400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>143000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>122000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3101,17 +3387,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>10000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>11100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,58 +3416,70 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="E62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T62" s="3">
         <v>4300</v>
       </c>
-      <c r="F62" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>7000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>5200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>369600</v>
+        <v>437500</v>
       </c>
       <c r="E66" s="3">
-        <v>355600</v>
+        <v>410200</v>
       </c>
       <c r="F66" s="3">
-        <v>336200</v>
+        <v>387200</v>
       </c>
       <c r="G66" s="3">
-        <v>318700</v>
+        <v>372500</v>
       </c>
       <c r="H66" s="3">
-        <v>302300</v>
+        <v>352200</v>
       </c>
       <c r="I66" s="3">
+        <v>333800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>316700</v>
+      </c>
+      <c r="K66" s="3">
         <v>286500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>260000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>228000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>215500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>215500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>197000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>178400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>150100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>127200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3942,14 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3626,32 +3974,38 @@
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-260300</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
+      <c r="O72" s="3">
+        <v>-260300</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
-        <v>-170600</v>
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-170600</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-142400</v>
+        <v>-132300</v>
       </c>
       <c r="E76" s="3">
-        <v>-152000</v>
+        <v>-136300</v>
       </c>
       <c r="F76" s="3">
-        <v>-151100</v>
+        <v>-149100</v>
       </c>
       <c r="G76" s="3">
-        <v>-152100</v>
+        <v>-159200</v>
       </c>
       <c r="H76" s="3">
-        <v>-149200</v>
+        <v>-158200</v>
       </c>
       <c r="I76" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-156300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-139800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-121200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-106500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-101700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-99200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-75900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-55000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-14400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7400</v>
+        <v>4800</v>
       </c>
       <c r="E81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4700</v>
-      </c>
       <c r="H81" s="3">
-        <v>-9600</v>
+        <v>-900</v>
       </c>
       <c r="I81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-20300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-16200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-23700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-20700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-22400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>81900</v>
+        <v>81800</v>
       </c>
       <c r="E8" s="3">
-        <v>75100</v>
+        <v>82300</v>
       </c>
       <c r="F8" s="3">
-        <v>74100</v>
+        <v>75400</v>
       </c>
       <c r="G8" s="3">
-        <v>59800</v>
+        <v>74400</v>
       </c>
       <c r="H8" s="3">
-        <v>62200</v>
+        <v>60700</v>
       </c>
       <c r="I8" s="3">
-        <v>53600</v>
+        <v>62400</v>
       </c>
       <c r="J8" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K8" s="3">
         <v>48700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>37700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,111 +817,117 @@
         <v>22300</v>
       </c>
       <c r="E9" s="3">
-        <v>21800</v>
+        <v>22400</v>
       </c>
       <c r="F9" s="3">
         <v>21900</v>
       </c>
       <c r="G9" s="3">
-        <v>16800</v>
+        <v>22000</v>
       </c>
       <c r="H9" s="3">
-        <v>17600</v>
+        <v>16900</v>
       </c>
       <c r="I9" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J9" s="3">
         <v>16400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59600</v>
+        <v>59400</v>
       </c>
       <c r="E10" s="3">
-        <v>53200</v>
+        <v>59900</v>
       </c>
       <c r="F10" s="3">
-        <v>52200</v>
+        <v>53500</v>
       </c>
       <c r="G10" s="3">
-        <v>42900</v>
+        <v>52400</v>
       </c>
       <c r="H10" s="3">
-        <v>44500</v>
+        <v>43800</v>
       </c>
       <c r="I10" s="3">
-        <v>37300</v>
+        <v>44700</v>
       </c>
       <c r="J10" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K10" s="3">
         <v>32600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>12000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E12" s="3">
         <v>6700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
-        <v>5600</v>
-      </c>
       <c r="H12" s="3">
-        <v>5800</v>
+        <v>11300</v>
       </c>
       <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
         <v>6300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6200</v>
       </c>
       <c r="K12" s="3">
         <v>6200</v>
       </c>
       <c r="L12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,37 +1064,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
@@ -1095,8 +1114,8 @@
       <c r="Q14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>78700</v>
+        <v>80100</v>
       </c>
       <c r="E17" s="3">
-        <v>70900</v>
+        <v>79000</v>
       </c>
       <c r="F17" s="3">
-        <v>67300</v>
+        <v>71200</v>
       </c>
       <c r="G17" s="3">
-        <v>60700</v>
+        <v>67600</v>
       </c>
       <c r="H17" s="3">
-        <v>63200</v>
+        <v>61000</v>
       </c>
       <c r="I17" s="3">
-        <v>59000</v>
+        <v>63500</v>
       </c>
       <c r="J17" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K17" s="3">
         <v>58400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>56900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>61400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>48900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
-        <v>6800</v>
-      </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>6900</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-20400</v>
       </c>
       <c r="R18" s="3">
         <v>-20400</v>
       </c>
       <c r="S18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="T18" s="3">
         <v>-21900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1322,55 +1355,58 @@
         <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="3">
         <v>1100</v>
       </c>
       <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,75 +1520,81 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="E23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F23" s="3">
         <v>5300</v>
       </c>
-      <c r="F23" s="3">
-        <v>7900</v>
-      </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>8000</v>
       </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1564,7 +1609,7 @@
         <v>200</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1573,19 +1618,19 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5000</v>
       </c>
-      <c r="F26" s="3">
-        <v>7700</v>
-      </c>
       <c r="G26" s="3">
-        <v>-500</v>
+        <v>7800</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-22400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5000</v>
       </c>
-      <c r="F27" s="3">
-        <v>7700</v>
-      </c>
       <c r="G27" s="3">
-        <v>-500</v>
+        <v>7800</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-23700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-22400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,14 +1903,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2063,117 @@
         <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>-1100</v>
+        <v>-1800</v>
       </c>
       <c r="F32" s="3">
         <v>-1100</v>
       </c>
       <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5000</v>
       </c>
-      <c r="F33" s="3">
-        <v>7700</v>
-      </c>
       <c r="G33" s="3">
-        <v>-500</v>
+        <v>7800</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-23700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-22400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5000</v>
       </c>
-      <c r="F35" s="3">
-        <v>7700</v>
-      </c>
       <c r="G35" s="3">
-        <v>-500</v>
+        <v>7800</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-23700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-22400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,108 +2399,112 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90600</v>
+        <v>122800</v>
       </c>
       <c r="E41" s="3">
-        <v>81800</v>
+        <v>91000</v>
       </c>
       <c r="F41" s="3">
-        <v>82800</v>
+        <v>82200</v>
       </c>
       <c r="G41" s="3">
-        <v>74100</v>
+        <v>83100</v>
       </c>
       <c r="H41" s="3">
-        <v>67200</v>
+        <v>74400</v>
       </c>
       <c r="I41" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="J41" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K41" s="3">
         <v>67100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>85900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>96500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>94100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>67200</v>
+        <v>77900</v>
       </c>
       <c r="E42" s="3">
-        <v>67200</v>
+        <v>67500</v>
       </c>
       <c r="F42" s="3">
-        <v>68900</v>
+        <v>67500</v>
       </c>
       <c r="G42" s="3">
-        <v>68900</v>
+        <v>69200</v>
       </c>
       <c r="H42" s="3">
-        <v>70700</v>
+        <v>69200</v>
       </c>
       <c r="I42" s="3">
-        <v>52200</v>
+        <v>71000</v>
       </c>
       <c r="J42" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K42" s="3">
         <v>39000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11600</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,34 +2574,37 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>16</v>
@@ -2520,8 +2615,8 @@
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2538,120 +2633,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44400</v>
+        <v>46100</v>
       </c>
       <c r="E45" s="3">
-        <v>40800</v>
+        <v>44600</v>
       </c>
       <c r="F45" s="3">
-        <v>37700</v>
+        <v>41000</v>
       </c>
       <c r="G45" s="3">
-        <v>38100</v>
+        <v>37900</v>
       </c>
       <c r="H45" s="3">
-        <v>39100</v>
+        <v>38200</v>
       </c>
       <c r="I45" s="3">
-        <v>40200</v>
+        <v>39300</v>
       </c>
       <c r="J45" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K45" s="3">
         <v>39500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>12600</v>
       </c>
       <c r="P45" s="3">
         <v>12600</v>
       </c>
       <c r="Q45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="R45" s="3">
         <v>9700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>202500</v>
+        <v>247100</v>
       </c>
       <c r="E46" s="3">
-        <v>190000</v>
+        <v>203400</v>
       </c>
       <c r="F46" s="3">
-        <v>189400</v>
+        <v>190800</v>
       </c>
       <c r="G46" s="3">
-        <v>181100</v>
+        <v>190300</v>
       </c>
       <c r="H46" s="3">
-        <v>177100</v>
+        <v>181900</v>
       </c>
       <c r="I46" s="3">
-        <v>159700</v>
+        <v>177900</v>
       </c>
       <c r="J46" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K46" s="3">
         <v>145600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>138600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>129600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>112400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>103700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>105100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>110000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>107400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>103700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,87 +2810,93 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E48" s="3">
         <v>13600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G48" s="3">
         <v>12400</v>
       </c>
-      <c r="F48" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11700</v>
-      </c>
       <c r="H48" s="3">
-        <v>13700</v>
+        <v>11800</v>
       </c>
       <c r="I48" s="3">
-        <v>11600</v>
+        <v>13800</v>
       </c>
       <c r="J48" s="3">
         <v>11600</v>
       </c>
       <c r="K48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1900</v>
+        <v>3700</v>
       </c>
       <c r="E49" s="3">
         <v>1900</v>
       </c>
       <c r="F49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2300</v>
       </c>
       <c r="K49" s="3">
         <v>2300</v>
@@ -2795,31 +2905,34 @@
         <v>2300</v>
       </c>
       <c r="M49" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="N49" s="3">
         <v>1900</v>
       </c>
       <c r="O49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P49" s="3">
         <v>2100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87200</v>
+        <v>68500</v>
       </c>
       <c r="E52" s="3">
-        <v>69600</v>
+        <v>87600</v>
       </c>
       <c r="F52" s="3">
-        <v>34300</v>
+        <v>69900</v>
       </c>
       <c r="G52" s="3">
-        <v>18300</v>
+        <v>34500</v>
       </c>
       <c r="H52" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1700</v>
       </c>
       <c r="N52" s="3">
         <v>1700</v>
       </c>
       <c r="O52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="P52" s="3">
         <v>1800</v>
       </c>
       <c r="Q52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R52" s="3">
         <v>2100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1800</v>
       </c>
       <c r="S52" s="3">
         <v>1800</v>
       </c>
       <c r="T52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>305200</v>
+        <v>337600</v>
       </c>
       <c r="E54" s="3">
-        <v>273900</v>
+        <v>306600</v>
       </c>
       <c r="F54" s="3">
-        <v>238000</v>
+        <v>275100</v>
       </c>
       <c r="G54" s="3">
-        <v>213200</v>
+        <v>239100</v>
       </c>
       <c r="H54" s="3">
-        <v>193900</v>
+        <v>214200</v>
       </c>
       <c r="I54" s="3">
-        <v>174500</v>
+        <v>194800</v>
       </c>
       <c r="J54" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K54" s="3">
         <v>160400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>138700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>116300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>116300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>112800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,31 +3346,31 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8300</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>432400</v>
+        <v>461100</v>
       </c>
       <c r="E59" s="3">
-        <v>405300</v>
+        <v>434200</v>
       </c>
       <c r="F59" s="3">
-        <v>382200</v>
+        <v>407100</v>
       </c>
       <c r="G59" s="3">
-        <v>365400</v>
+        <v>383900</v>
       </c>
       <c r="H59" s="3">
-        <v>342000</v>
+        <v>367000</v>
       </c>
       <c r="I59" s="3">
-        <v>323500</v>
+        <v>343500</v>
       </c>
       <c r="J59" s="3">
+        <v>324900</v>
+      </c>
+      <c r="K59" s="3">
         <v>304100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>273800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>245200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>210900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>211400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>192100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>172400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>143000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>122000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>432400</v>
+        <v>461100</v>
       </c>
       <c r="E60" s="3">
-        <v>405300</v>
+        <v>434200</v>
       </c>
       <c r="F60" s="3">
-        <v>382200</v>
+        <v>407100</v>
       </c>
       <c r="G60" s="3">
-        <v>367900</v>
+        <v>383900</v>
       </c>
       <c r="H60" s="3">
-        <v>346600</v>
+        <v>369500</v>
       </c>
       <c r="I60" s="3">
-        <v>330000</v>
+        <v>348100</v>
       </c>
       <c r="J60" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K60" s="3">
         <v>312500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>273800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>245200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>225000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>211700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>192100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>172400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>143000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>122000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3393,14 +3535,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>10000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,64 +3564,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E62" s="3">
         <v>5100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4900</v>
       </c>
       <c r="F62" s="3">
         <v>4900</v>
       </c>
       <c r="G62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>437500</v>
+        <v>470000</v>
       </c>
       <c r="E66" s="3">
-        <v>410200</v>
+        <v>439400</v>
       </c>
       <c r="F66" s="3">
-        <v>387200</v>
+        <v>412000</v>
       </c>
       <c r="G66" s="3">
-        <v>372500</v>
+        <v>388900</v>
       </c>
       <c r="H66" s="3">
-        <v>352200</v>
+        <v>374100</v>
       </c>
       <c r="I66" s="3">
-        <v>333800</v>
+        <v>353700</v>
       </c>
       <c r="J66" s="3">
+        <v>335300</v>
+      </c>
+      <c r="K66" s="3">
         <v>316700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>286500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>260000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>228000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>215500</v>
       </c>
       <c r="O66" s="3">
         <v>215500</v>
       </c>
       <c r="P66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>197000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>178400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>150100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>127200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3980,17 +4153,17 @@
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="3">
         <v>-260300</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
@@ -3998,14 +4171,17 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" s="3">
         <v>-170600</v>
       </c>
-      <c r="T72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-132300</v>
+        <v>-132500</v>
       </c>
       <c r="E76" s="3">
-        <v>-136300</v>
+        <v>-132800</v>
       </c>
       <c r="F76" s="3">
-        <v>-149100</v>
+        <v>-136900</v>
       </c>
       <c r="G76" s="3">
-        <v>-159200</v>
+        <v>-149800</v>
       </c>
       <c r="H76" s="3">
-        <v>-158200</v>
+        <v>-159900</v>
       </c>
       <c r="I76" s="3">
-        <v>-159300</v>
+        <v>-158900</v>
       </c>
       <c r="J76" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-156300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-139800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-121200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-106500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-101700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-99200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-55000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-33700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-14400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5000</v>
       </c>
-      <c r="F81" s="3">
-        <v>7700</v>
-      </c>
       <c r="G81" s="3">
-        <v>-500</v>
+        <v>7800</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-23700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-22400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>81800</v>
+        <v>93700</v>
       </c>
       <c r="E8" s="3">
-        <v>82300</v>
+        <v>83500</v>
       </c>
       <c r="F8" s="3">
-        <v>75400</v>
+        <v>84000</v>
       </c>
       <c r="G8" s="3">
-        <v>74400</v>
+        <v>77000</v>
       </c>
       <c r="H8" s="3">
-        <v>60700</v>
+        <v>76000</v>
       </c>
       <c r="I8" s="3">
-        <v>62400</v>
+        <v>61300</v>
       </c>
       <c r="J8" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K8" s="3">
         <v>53900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>37700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22300</v>
+        <v>24900</v>
       </c>
       <c r="E9" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>22900</v>
+      </c>
+      <c r="G9" s="3">
         <v>22400</v>
       </c>
-      <c r="F9" s="3">
-        <v>21900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>22000</v>
-      </c>
       <c r="H9" s="3">
-        <v>16900</v>
+        <v>22500</v>
       </c>
       <c r="I9" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="J9" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K9" s="3">
         <v>16400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>59400</v>
+        <v>68800</v>
       </c>
       <c r="E10" s="3">
-        <v>59900</v>
+        <v>60700</v>
       </c>
       <c r="F10" s="3">
+        <v>61100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>54600</v>
+      </c>
+      <c r="H10" s="3">
         <v>53500</v>
       </c>
-      <c r="G10" s="3">
-        <v>52400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>43800</v>
-      </c>
       <c r="I10" s="3">
-        <v>44700</v>
+        <v>44000</v>
       </c>
       <c r="J10" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K10" s="3">
         <v>37400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>12000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F12" s="3">
         <v>6800</v>
       </c>
-      <c r="E12" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5900</v>
-      </c>
       <c r="G12" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="3">
-        <v>11300</v>
+        <v>5600</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K12" s="3">
         <v>6300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6200</v>
       </c>
       <c r="L12" s="3">
         <v>6200</v>
       </c>
       <c r="M12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,40 +1084,43 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1100</v>
+        <v>-1700</v>
       </c>
       <c r="E14" s="3">
         <v>-1200</v>
       </c>
       <c r="F14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>16</v>
@@ -1117,8 +1137,8 @@
       <c r="R14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>80100</v>
+        <v>92700</v>
       </c>
       <c r="E17" s="3">
-        <v>79000</v>
+        <v>81800</v>
       </c>
       <c r="F17" s="3">
-        <v>71200</v>
+        <v>80700</v>
       </c>
       <c r="G17" s="3">
-        <v>67600</v>
+        <v>72800</v>
       </c>
       <c r="H17" s="3">
-        <v>61000</v>
+        <v>69000</v>
       </c>
       <c r="I17" s="3">
-        <v>63500</v>
+        <v>62300</v>
       </c>
       <c r="J17" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K17" s="3">
         <v>59200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>56900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>61400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>48900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>43600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>40600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
-        <v>4100</v>
-      </c>
       <c r="G18" s="3">
-        <v>6900</v>
+        <v>4200</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>7000</v>
       </c>
       <c r="I18" s="3">
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-20400</v>
       </c>
       <c r="S18" s="3">
         <v>-20400</v>
       </c>
       <c r="T18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="U18" s="3">
         <v>-21900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1100</v>
       </c>
       <c r="G20" s="3">
         <v>1100</v>
       </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,81 +1563,87 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="E23" s="3">
-        <v>5100</v>
+        <v>3600</v>
       </c>
       <c r="F23" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G23" s="3">
-        <v>8000</v>
+        <v>5400</v>
       </c>
       <c r="H23" s="3">
-        <v>300</v>
+        <v>8100</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-22400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
@@ -1612,7 +1658,7 @@
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1621,19 +1667,19 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5000</v>
-      </c>
       <c r="G26" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>7900</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-22400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="3">
         <v>4900</v>
       </c>
-      <c r="E27" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5000</v>
-      </c>
       <c r="G27" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>7900</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-22400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,14 +1967,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1100</v>
       </c>
       <c r="G32" s="3">
         <v>-1100</v>
       </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="3">
         <v>4900</v>
       </c>
-      <c r="E33" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5000</v>
-      </c>
       <c r="G33" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>7900</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-22400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F35" s="3">
         <v>4900</v>
       </c>
-      <c r="E35" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5000</v>
-      </c>
       <c r="G35" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>7900</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-22400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,114 +2486,118 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>122800</v>
+        <v>120000</v>
       </c>
       <c r="E41" s="3">
-        <v>91000</v>
+        <v>125400</v>
       </c>
       <c r="F41" s="3">
-        <v>82200</v>
+        <v>93000</v>
       </c>
       <c r="G41" s="3">
-        <v>83100</v>
+        <v>83900</v>
       </c>
       <c r="H41" s="3">
+        <v>84900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>76000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K41" s="3">
+        <v>67600</v>
+      </c>
+      <c r="L41" s="3">
+        <v>67100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>83600</v>
+      </c>
+      <c r="N41" s="3">
+        <v>85900</v>
+      </c>
+      <c r="O41" s="3">
+        <v>77100</v>
+      </c>
+      <c r="P41" s="3">
         <v>74400</v>
       </c>
-      <c r="I41" s="3">
-        <v>67500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>67600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>67100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>83600</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
+        <v>77600</v>
+      </c>
+      <c r="R41" s="3">
         <v>85900</v>
       </c>
-      <c r="N41" s="3">
-        <v>77100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>74400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>77600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>85900</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>96500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>94100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77900</v>
+        <v>70000</v>
       </c>
       <c r="E42" s="3">
-        <v>67500</v>
+        <v>79500</v>
       </c>
       <c r="F42" s="3">
-        <v>67500</v>
+        <v>68900</v>
       </c>
       <c r="G42" s="3">
-        <v>69200</v>
+        <v>68900</v>
       </c>
       <c r="H42" s="3">
-        <v>69200</v>
+        <v>70600</v>
       </c>
       <c r="I42" s="3">
-        <v>71000</v>
+        <v>70700</v>
       </c>
       <c r="J42" s="3">
+        <v>72500</v>
+      </c>
+      <c r="K42" s="3">
         <v>52500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11600</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,37 +2670,40 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>16</v>
@@ -2618,8 +2714,8 @@
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2636,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46100</v>
+        <v>49100</v>
       </c>
       <c r="E45" s="3">
-        <v>44600</v>
+        <v>47100</v>
       </c>
       <c r="F45" s="3">
-        <v>41000</v>
+        <v>45600</v>
       </c>
       <c r="G45" s="3">
-        <v>37900</v>
+        <v>41800</v>
       </c>
       <c r="H45" s="3">
-        <v>38200</v>
+        <v>38700</v>
       </c>
       <c r="I45" s="3">
-        <v>39300</v>
+        <v>39000</v>
       </c>
       <c r="J45" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K45" s="3">
         <v>40300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>34100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>12600</v>
       </c>
       <c r="Q45" s="3">
         <v>12600</v>
       </c>
       <c r="R45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="S45" s="3">
         <v>9700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>247100</v>
+        <v>239300</v>
       </c>
       <c r="E46" s="3">
-        <v>203400</v>
+        <v>252400</v>
       </c>
       <c r="F46" s="3">
-        <v>190800</v>
+        <v>207700</v>
       </c>
       <c r="G46" s="3">
-        <v>190300</v>
+        <v>194800</v>
       </c>
       <c r="H46" s="3">
-        <v>181900</v>
+        <v>194300</v>
       </c>
       <c r="I46" s="3">
-        <v>177900</v>
+        <v>185700</v>
       </c>
       <c r="J46" s="3">
+        <v>181700</v>
+      </c>
+      <c r="K46" s="3">
         <v>160400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>145600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>138600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>129600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>112400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>103700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>105100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>110000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>113900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>107400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>103700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,75 +2918,81 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18200</v>
+        <v>22500</v>
       </c>
       <c r="E48" s="3">
-        <v>13600</v>
+        <v>18600</v>
       </c>
       <c r="F48" s="3">
-        <v>12500</v>
+        <v>13900</v>
       </c>
       <c r="G48" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="H48" s="3">
-        <v>11800</v>
+        <v>12600</v>
       </c>
       <c r="I48" s="3">
-        <v>13800</v>
+        <v>12000</v>
       </c>
       <c r="J48" s="3">
-        <v>11600</v>
+        <v>14100</v>
       </c>
       <c r="K48" s="3">
         <v>11600</v>
       </c>
       <c r="L48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
@@ -2890,16 +3001,16 @@
         <v>2000</v>
       </c>
       <c r="H49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I49" s="3">
         <v>2200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2000</v>
       </c>
       <c r="J49" s="3">
         <v>2100</v>
       </c>
       <c r="K49" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="L49" s="3">
         <v>2300</v>
@@ -2908,31 +3019,34 @@
         <v>2300</v>
       </c>
       <c r="N49" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="O49" s="3">
         <v>1900</v>
       </c>
       <c r="P49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68500</v>
+        <v>84800</v>
       </c>
       <c r="E52" s="3">
-        <v>87600</v>
+        <v>69900</v>
       </c>
       <c r="F52" s="3">
-        <v>69900</v>
+        <v>89500</v>
       </c>
       <c r="G52" s="3">
-        <v>34500</v>
+        <v>71400</v>
       </c>
       <c r="H52" s="3">
-        <v>18400</v>
+        <v>35200</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>18800</v>
       </c>
       <c r="J52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1700</v>
       </c>
       <c r="O52" s="3">
         <v>1700</v>
       </c>
       <c r="P52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="Q52" s="3">
         <v>1800</v>
       </c>
       <c r="R52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S52" s="3">
         <v>2100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1800</v>
       </c>
       <c r="T52" s="3">
         <v>1800</v>
       </c>
       <c r="U52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>337600</v>
+        <v>350200</v>
       </c>
       <c r="E54" s="3">
-        <v>306600</v>
+        <v>344700</v>
       </c>
       <c r="F54" s="3">
-        <v>275100</v>
+        <v>313100</v>
       </c>
       <c r="G54" s="3">
-        <v>239100</v>
+        <v>280900</v>
       </c>
       <c r="H54" s="3">
-        <v>214200</v>
+        <v>244100</v>
       </c>
       <c r="I54" s="3">
-        <v>194800</v>
+        <v>218700</v>
       </c>
       <c r="J54" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K54" s="3">
         <v>175300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>146700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>138700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>116300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>123300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>116300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>112800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,13 +3462,16 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3349,31 +3483,31 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="J58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K58" s="3">
         <v>6500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8300</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>461100</v>
+        <v>475900</v>
       </c>
       <c r="E59" s="3">
-        <v>434200</v>
+        <v>470900</v>
       </c>
       <c r="F59" s="3">
-        <v>407100</v>
+        <v>443400</v>
       </c>
       <c r="G59" s="3">
-        <v>383900</v>
+        <v>415700</v>
       </c>
       <c r="H59" s="3">
-        <v>367000</v>
+        <v>392000</v>
       </c>
       <c r="I59" s="3">
-        <v>343500</v>
+        <v>374700</v>
       </c>
       <c r="J59" s="3">
+        <v>350700</v>
+      </c>
+      <c r="K59" s="3">
         <v>324900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>304100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>273800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>245200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>210900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>211400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>192100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>172400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>143000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>122000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>461100</v>
+        <v>475900</v>
       </c>
       <c r="E60" s="3">
-        <v>434200</v>
+        <v>470900</v>
       </c>
       <c r="F60" s="3">
-        <v>407100</v>
+        <v>443400</v>
       </c>
       <c r="G60" s="3">
-        <v>383900</v>
+        <v>415700</v>
       </c>
       <c r="H60" s="3">
-        <v>369500</v>
+        <v>392000</v>
       </c>
       <c r="I60" s="3">
-        <v>348100</v>
+        <v>377300</v>
       </c>
       <c r="J60" s="3">
+        <v>355500</v>
+      </c>
+      <c r="K60" s="3">
         <v>331400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>312500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>273800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>245200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>225000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>211700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>211400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>192100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>172400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>143000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>122000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3538,14 +3681,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>10000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3567,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="E62" s="3">
-        <v>5100</v>
+        <v>9100</v>
       </c>
       <c r="F62" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="G62" s="3">
         <v>5000</v>
       </c>
       <c r="H62" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="I62" s="3">
-        <v>5600</v>
+        <v>4700</v>
       </c>
       <c r="J62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>470000</v>
+        <v>485600</v>
       </c>
       <c r="E66" s="3">
-        <v>439400</v>
+        <v>480000</v>
       </c>
       <c r="F66" s="3">
-        <v>412000</v>
+        <v>448700</v>
       </c>
       <c r="G66" s="3">
-        <v>388900</v>
+        <v>420700</v>
       </c>
       <c r="H66" s="3">
-        <v>374100</v>
+        <v>397100</v>
       </c>
       <c r="I66" s="3">
-        <v>353700</v>
+        <v>382000</v>
       </c>
       <c r="J66" s="3">
+        <v>361200</v>
+      </c>
+      <c r="K66" s="3">
         <v>335300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>316700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>286500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>260000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>228000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>215500</v>
       </c>
       <c r="P66" s="3">
         <v>215500</v>
       </c>
       <c r="Q66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="R66" s="3">
         <v>197000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>178400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>150100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>127200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4156,17 +4330,17 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-260300</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
@@ -4174,14 +4348,17 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="3">
         <v>-170600</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-132500</v>
+        <v>-135500</v>
       </c>
       <c r="E76" s="3">
-        <v>-132800</v>
+        <v>-135300</v>
       </c>
       <c r="F76" s="3">
-        <v>-136900</v>
+        <v>-135600</v>
       </c>
       <c r="G76" s="3">
-        <v>-149800</v>
+        <v>-139800</v>
       </c>
       <c r="H76" s="3">
-        <v>-159900</v>
+        <v>-152900</v>
       </c>
       <c r="I76" s="3">
-        <v>-158900</v>
+        <v>-163300</v>
       </c>
       <c r="J76" s="3">
+        <v>-162300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-160000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-156300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-139800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-121200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-106500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-101700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-99200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-75900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-55000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-33700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-14400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F81" s="3">
         <v>4900</v>
       </c>
-      <c r="E81" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>5000</v>
-      </c>
       <c r="G81" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>7900</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-22400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>93700</v>
+        <v>92400</v>
       </c>
       <c r="E8" s="3">
-        <v>83500</v>
+        <v>82400</v>
       </c>
       <c r="F8" s="3">
-        <v>84000</v>
+        <v>82900</v>
       </c>
       <c r="G8" s="3">
-        <v>77000</v>
+        <v>76000</v>
       </c>
       <c r="H8" s="3">
-        <v>76000</v>
+        <v>75000</v>
       </c>
       <c r="I8" s="3">
-        <v>61300</v>
+        <v>60500</v>
       </c>
       <c r="J8" s="3">
-        <v>63800</v>
+        <v>62900</v>
       </c>
       <c r="K8" s="3">
         <v>53900</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="E9" s="3">
-        <v>22800</v>
+        <v>22500</v>
       </c>
       <c r="F9" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="G9" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="H9" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="I9" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="J9" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="K9" s="3">
         <v>16400</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>68800</v>
+        <v>67900</v>
       </c>
       <c r="E10" s="3">
-        <v>60700</v>
+        <v>59900</v>
       </c>
       <c r="F10" s="3">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="G10" s="3">
-        <v>54600</v>
+        <v>53900</v>
       </c>
       <c r="H10" s="3">
-        <v>53500</v>
+        <v>52800</v>
       </c>
       <c r="I10" s="3">
-        <v>44000</v>
+        <v>43500</v>
       </c>
       <c r="J10" s="3">
-        <v>45700</v>
+        <v>45100</v>
       </c>
       <c r="K10" s="3">
         <v>37400</v>
@@ -969,25 +969,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="E12" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F12" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="G12" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H12" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="I12" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J12" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K12" s="3">
         <v>6300</v>
@@ -1093,10 +1093,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E14" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F14" s="3">
         <v>-1200</v>
@@ -1238,25 +1238,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>92700</v>
+        <v>91500</v>
       </c>
       <c r="E17" s="3">
-        <v>81800</v>
+        <v>80700</v>
       </c>
       <c r="F17" s="3">
-        <v>80700</v>
+        <v>79600</v>
       </c>
       <c r="G17" s="3">
-        <v>72800</v>
+        <v>71800</v>
       </c>
       <c r="H17" s="3">
-        <v>69000</v>
+        <v>68100</v>
       </c>
       <c r="I17" s="3">
-        <v>62300</v>
+        <v>61500</v>
       </c>
       <c r="J17" s="3">
-        <v>64800</v>
+        <v>64000</v>
       </c>
       <c r="K17" s="3">
         <v>59200</v>
@@ -1312,7 +1312,7 @@
         <v>4200</v>
       </c>
       <c r="H18" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="I18" s="3">
         <v>-1000</v>
@@ -1389,7 +1389,7 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="3">
         <v>1800</v>
@@ -1575,16 +1575,16 @@
         <v>2200</v>
       </c>
       <c r="E23" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F23" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G23" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="H23" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
@@ -1634,7 +1634,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
         <v>-1400</v>
@@ -1758,19 +1758,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F26" s="3">
         <v>4900</v>
       </c>
       <c r="G26" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H26" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
@@ -1820,19 +1820,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F27" s="3">
         <v>4900</v>
       </c>
       <c r="G27" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H27" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
@@ -2133,7 +2133,7 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F32" s="3">
         <v>-1800</v>
@@ -2192,19 +2192,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F33" s="3">
         <v>4900</v>
       </c>
       <c r="G33" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H33" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
@@ -2316,19 +2316,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F35" s="3">
         <v>4900</v>
       </c>
       <c r="G35" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H35" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120000</v>
+        <v>118500</v>
       </c>
       <c r="E41" s="3">
-        <v>125400</v>
+        <v>123800</v>
       </c>
       <c r="F41" s="3">
-        <v>93000</v>
+        <v>91800</v>
       </c>
       <c r="G41" s="3">
-        <v>83900</v>
+        <v>82800</v>
       </c>
       <c r="H41" s="3">
-        <v>84900</v>
+        <v>83800</v>
       </c>
       <c r="I41" s="3">
-        <v>76000</v>
+        <v>75000</v>
       </c>
       <c r="J41" s="3">
-        <v>68900</v>
+        <v>68000</v>
       </c>
       <c r="K41" s="3">
         <v>67600</v>
@@ -2555,25 +2555,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>70000</v>
+        <v>69100</v>
       </c>
       <c r="E42" s="3">
-        <v>79500</v>
+        <v>78500</v>
       </c>
       <c r="F42" s="3">
-        <v>68900</v>
+        <v>68000</v>
       </c>
       <c r="G42" s="3">
-        <v>68900</v>
+        <v>68000</v>
       </c>
       <c r="H42" s="3">
-        <v>70600</v>
+        <v>69700</v>
       </c>
       <c r="I42" s="3">
-        <v>70700</v>
+        <v>69700</v>
       </c>
       <c r="J42" s="3">
-        <v>72500</v>
+        <v>71500</v>
       </c>
       <c r="K42" s="3">
         <v>52500</v>
@@ -2685,10 +2685,10 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49100</v>
+        <v>48500</v>
       </c>
       <c r="E45" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="F45" s="3">
-        <v>45600</v>
+        <v>45000</v>
       </c>
       <c r="G45" s="3">
-        <v>41800</v>
+        <v>41300</v>
       </c>
       <c r="H45" s="3">
-        <v>38700</v>
+        <v>38200</v>
       </c>
       <c r="I45" s="3">
-        <v>39000</v>
+        <v>38500</v>
       </c>
       <c r="J45" s="3">
-        <v>40100</v>
+        <v>39600</v>
       </c>
       <c r="K45" s="3">
         <v>40300</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>239300</v>
+        <v>236200</v>
       </c>
       <c r="E46" s="3">
-        <v>252400</v>
+        <v>249100</v>
       </c>
       <c r="F46" s="3">
-        <v>207700</v>
+        <v>205000</v>
       </c>
       <c r="G46" s="3">
-        <v>194800</v>
+        <v>192300</v>
       </c>
       <c r="H46" s="3">
-        <v>194300</v>
+        <v>191700</v>
       </c>
       <c r="I46" s="3">
-        <v>185700</v>
+        <v>183300</v>
       </c>
       <c r="J46" s="3">
-        <v>181700</v>
+        <v>179300</v>
       </c>
       <c r="K46" s="3">
         <v>160400</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="E48" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="F48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J48" s="3">
         <v>13900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>14100</v>
       </c>
       <c r="K48" s="3">
         <v>11600</v>
@@ -2989,7 +2989,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E49" s="3">
         <v>3800</v>
@@ -2998,7 +2998,7 @@
         <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H49" s="3">
         <v>2000</v>
@@ -3007,7 +3007,7 @@
         <v>2200</v>
       </c>
       <c r="J49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K49" s="3">
         <v>2100</v>
@@ -3175,22 +3175,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>84800</v>
+        <v>83700</v>
       </c>
       <c r="E52" s="3">
-        <v>69900</v>
+        <v>69000</v>
       </c>
       <c r="F52" s="3">
-        <v>89500</v>
+        <v>88300</v>
       </c>
       <c r="G52" s="3">
-        <v>71400</v>
+        <v>70400</v>
       </c>
       <c r="H52" s="3">
-        <v>35200</v>
+        <v>34700</v>
       </c>
       <c r="I52" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="J52" s="3">
         <v>1100</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>350200</v>
+        <v>345600</v>
       </c>
       <c r="E54" s="3">
-        <v>344700</v>
+        <v>340200</v>
       </c>
       <c r="F54" s="3">
-        <v>313100</v>
+        <v>309000</v>
       </c>
       <c r="G54" s="3">
-        <v>280900</v>
+        <v>277300</v>
       </c>
       <c r="H54" s="3">
-        <v>244100</v>
+        <v>241000</v>
       </c>
       <c r="I54" s="3">
-        <v>218700</v>
+        <v>215900</v>
       </c>
       <c r="J54" s="3">
-        <v>198900</v>
+        <v>196300</v>
       </c>
       <c r="K54" s="3">
         <v>175300</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>475900</v>
+        <v>469700</v>
       </c>
       <c r="E59" s="3">
-        <v>470900</v>
+        <v>464700</v>
       </c>
       <c r="F59" s="3">
-        <v>443400</v>
+        <v>437700</v>
       </c>
       <c r="G59" s="3">
-        <v>415700</v>
+        <v>410300</v>
       </c>
       <c r="H59" s="3">
-        <v>392000</v>
+        <v>386900</v>
       </c>
       <c r="I59" s="3">
-        <v>374700</v>
+        <v>369900</v>
       </c>
       <c r="J59" s="3">
-        <v>350700</v>
+        <v>346200</v>
       </c>
       <c r="K59" s="3">
         <v>324900</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>475900</v>
+        <v>469700</v>
       </c>
       <c r="E60" s="3">
-        <v>470900</v>
+        <v>464700</v>
       </c>
       <c r="F60" s="3">
-        <v>443400</v>
+        <v>437700</v>
       </c>
       <c r="G60" s="3">
-        <v>415700</v>
+        <v>410300</v>
       </c>
       <c r="H60" s="3">
-        <v>392000</v>
+        <v>386900</v>
       </c>
       <c r="I60" s="3">
-        <v>377300</v>
+        <v>372400</v>
       </c>
       <c r="J60" s="3">
-        <v>355500</v>
+        <v>350800</v>
       </c>
       <c r="K60" s="3">
         <v>331400</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E62" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F62" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
-        <v>5100</v>
-      </c>
       <c r="I62" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J62" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K62" s="3">
         <v>3900</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>485600</v>
+        <v>479300</v>
       </c>
       <c r="E66" s="3">
-        <v>480000</v>
+        <v>473700</v>
       </c>
       <c r="F66" s="3">
-        <v>448700</v>
+        <v>442800</v>
       </c>
       <c r="G66" s="3">
-        <v>420700</v>
+        <v>415200</v>
       </c>
       <c r="H66" s="3">
-        <v>397100</v>
+        <v>391900</v>
       </c>
       <c r="I66" s="3">
-        <v>382000</v>
+        <v>377000</v>
       </c>
       <c r="J66" s="3">
-        <v>361200</v>
+        <v>356500</v>
       </c>
       <c r="K66" s="3">
         <v>335300</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-135500</v>
+        <v>-133700</v>
       </c>
       <c r="E76" s="3">
-        <v>-135300</v>
+        <v>-133500</v>
       </c>
       <c r="F76" s="3">
-        <v>-135600</v>
+        <v>-133900</v>
       </c>
       <c r="G76" s="3">
-        <v>-139800</v>
+        <v>-138000</v>
       </c>
       <c r="H76" s="3">
-        <v>-152900</v>
+        <v>-150900</v>
       </c>
       <c r="I76" s="3">
-        <v>-163300</v>
+        <v>-161200</v>
       </c>
       <c r="J76" s="3">
-        <v>-162300</v>
+        <v>-160200</v>
       </c>
       <c r="K76" s="3">
         <v>-160000</v>
@@ -4740,19 +4740,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E81" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F81" s="3">
         <v>4900</v>
       </c>
       <c r="G81" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H81" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>92400</v>
+        <v>90800</v>
       </c>
       <c r="E8" s="3">
-        <v>82400</v>
+        <v>94000</v>
       </c>
       <c r="F8" s="3">
-        <v>82900</v>
+        <v>83800</v>
       </c>
       <c r="G8" s="3">
-        <v>76000</v>
+        <v>84300</v>
       </c>
       <c r="H8" s="3">
-        <v>75000</v>
+        <v>77300</v>
       </c>
       <c r="I8" s="3">
-        <v>60500</v>
+        <v>76300</v>
       </c>
       <c r="J8" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K8" s="3">
         <v>62900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="E9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>22900</v>
+      </c>
+      <c r="G9" s="3">
+        <v>23000</v>
+      </c>
+      <c r="H9" s="3">
         <v>22500</v>
       </c>
-      <c r="F9" s="3">
-        <v>22600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>22100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>22200</v>
-      </c>
       <c r="I9" s="3">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="J9" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K9" s="3">
         <v>17900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>67900</v>
+        <v>66000</v>
       </c>
       <c r="E10" s="3">
-        <v>59900</v>
+        <v>69000</v>
       </c>
       <c r="F10" s="3">
-        <v>60300</v>
+        <v>60900</v>
       </c>
       <c r="G10" s="3">
-        <v>53900</v>
+        <v>61300</v>
       </c>
       <c r="H10" s="3">
-        <v>52800</v>
+        <v>54800</v>
       </c>
       <c r="I10" s="3">
-        <v>43500</v>
+        <v>53700</v>
       </c>
       <c r="J10" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K10" s="3">
         <v>45100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8900</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G12" s="3">
         <v>6900</v>
       </c>
-      <c r="F12" s="3">
-        <v>6700</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="H12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6200</v>
       </c>
       <c r="M12" s="3">
         <v>6200</v>
       </c>
       <c r="N12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,43 +1104,46 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1600</v>
+        <v>-1100</v>
       </c>
       <c r="E14" s="3">
-        <v>-1100</v>
+        <v>-1700</v>
       </c>
       <c r="F14" s="3">
         <v>-1200</v>
       </c>
       <c r="G14" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>16</v>
@@ -1140,8 +1160,8 @@
       <c r="S14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>91500</v>
+        <v>96100</v>
       </c>
       <c r="E17" s="3">
-        <v>80700</v>
+        <v>93100</v>
       </c>
       <c r="F17" s="3">
-        <v>79600</v>
+        <v>82000</v>
       </c>
       <c r="G17" s="3">
-        <v>71800</v>
+        <v>81000</v>
       </c>
       <c r="H17" s="3">
-        <v>68100</v>
+        <v>73000</v>
       </c>
       <c r="I17" s="3">
-        <v>61500</v>
+        <v>69200</v>
       </c>
       <c r="J17" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K17" s="3">
         <v>64000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>56900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>61400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>48900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>43600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1700</v>
       </c>
-      <c r="F18" s="3">
-        <v>3300</v>
-      </c>
       <c r="G18" s="3">
-        <v>4200</v>
+        <v>3400</v>
       </c>
       <c r="H18" s="3">
-        <v>6900</v>
+        <v>4300</v>
       </c>
       <c r="I18" s="3">
-        <v>-1000</v>
+        <v>7000</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
       </c>
       <c r="K18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-22700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-20400</v>
       </c>
       <c r="T18" s="3">
         <v>-20400</v>
       </c>
       <c r="U18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-21900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1100</v>
-      </c>
       <c r="H20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,87 +1606,93 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
-        <v>3500</v>
-      </c>
       <c r="F23" s="3">
-        <v>5100</v>
+        <v>3600</v>
       </c>
       <c r="G23" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="H23" s="3">
-        <v>8000</v>
+        <v>5400</v>
       </c>
       <c r="I23" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-23500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-22400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1661,7 +1707,7 @@
         <v>200</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1670,19 +1716,19 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200</v>
+        <v>-4200</v>
       </c>
       <c r="E26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G26" s="3">
         <v>4900</v>
       </c>
-      <c r="F26" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5000</v>
-      </c>
       <c r="H26" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="I26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-20400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-22400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1200</v>
+        <v>-4200</v>
       </c>
       <c r="E27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G27" s="3">
         <v>4900</v>
       </c>
-      <c r="F27" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5000</v>
-      </c>
       <c r="H27" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="I27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-21000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-20400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-22400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,14 +2031,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>16</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1200</v>
+        <v>-4200</v>
       </c>
       <c r="E33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="3">
         <v>4900</v>
       </c>
-      <c r="F33" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5000</v>
-      </c>
       <c r="H33" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="I33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-23700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-21000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-20400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-22400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1200</v>
+        <v>-4200</v>
       </c>
       <c r="E35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G35" s="3">
         <v>4900</v>
       </c>
-      <c r="F35" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>5000</v>
-      </c>
       <c r="H35" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="I35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-23700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-21000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-20400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-22400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,120 +2573,124 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>118500</v>
+        <v>132000</v>
       </c>
       <c r="E41" s="3">
-        <v>123800</v>
+        <v>120400</v>
       </c>
       <c r="F41" s="3">
-        <v>91800</v>
+        <v>125900</v>
       </c>
       <c r="G41" s="3">
-        <v>82800</v>
+        <v>93300</v>
       </c>
       <c r="H41" s="3">
-        <v>83800</v>
+        <v>84200</v>
       </c>
       <c r="I41" s="3">
-        <v>75000</v>
+        <v>85200</v>
       </c>
       <c r="J41" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K41" s="3">
         <v>68000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>85900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>74400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>77600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>85900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>104100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>96500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>94100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>69100</v>
+        <v>60700</v>
       </c>
       <c r="E42" s="3">
-        <v>78500</v>
+        <v>70300</v>
       </c>
       <c r="F42" s="3">
-        <v>68000</v>
+        <v>79800</v>
       </c>
       <c r="G42" s="3">
-        <v>68000</v>
+        <v>69200</v>
       </c>
       <c r="H42" s="3">
-        <v>69700</v>
+        <v>69200</v>
       </c>
       <c r="I42" s="3">
-        <v>69700</v>
+        <v>70900</v>
       </c>
       <c r="J42" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K42" s="3">
         <v>71500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>52500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11600</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,40 +2766,43 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>16</v>
@@ -2717,8 +2813,8 @@
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48500</v>
+        <v>51300</v>
       </c>
       <c r="E45" s="3">
-        <v>46500</v>
+        <v>49300</v>
       </c>
       <c r="F45" s="3">
-        <v>45000</v>
+        <v>47300</v>
       </c>
       <c r="G45" s="3">
-        <v>41300</v>
+        <v>45700</v>
       </c>
       <c r="H45" s="3">
-        <v>38200</v>
+        <v>42000</v>
       </c>
       <c r="I45" s="3">
-        <v>38500</v>
+        <v>38800</v>
       </c>
       <c r="J45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K45" s="3">
         <v>39600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>34100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>12600</v>
       </c>
       <c r="R45" s="3">
         <v>12600</v>
       </c>
       <c r="S45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="T45" s="3">
         <v>9700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>236200</v>
+        <v>244300</v>
       </c>
       <c r="E46" s="3">
-        <v>249100</v>
+        <v>240200</v>
       </c>
       <c r="F46" s="3">
-        <v>205000</v>
+        <v>253300</v>
       </c>
       <c r="G46" s="3">
-        <v>192300</v>
+        <v>208400</v>
       </c>
       <c r="H46" s="3">
-        <v>191700</v>
+        <v>195500</v>
       </c>
       <c r="I46" s="3">
-        <v>183300</v>
+        <v>195000</v>
       </c>
       <c r="J46" s="3">
+        <v>186400</v>
+      </c>
+      <c r="K46" s="3">
         <v>179300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>160400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>145600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>129600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>112400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>103700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>105100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>110000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>113900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>107400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>103700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,81 +3026,87 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22200</v>
+        <v>22500</v>
       </c>
       <c r="E48" s="3">
-        <v>18400</v>
+        <v>22500</v>
       </c>
       <c r="F48" s="3">
-        <v>13800</v>
+        <v>18700</v>
       </c>
       <c r="G48" s="3">
-        <v>12600</v>
+        <v>14000</v>
       </c>
       <c r="H48" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="I48" s="3">
-        <v>11900</v>
+        <v>12700</v>
       </c>
       <c r="J48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K48" s="3">
         <v>13900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>11600</v>
       </c>
       <c r="L48" s="3">
         <v>11600</v>
       </c>
       <c r="M48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="N48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="E49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F49" s="3">
         <v>3800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1900</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
@@ -3004,16 +3115,16 @@
         <v>2000</v>
       </c>
       <c r="I49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2300</v>
       </c>
       <c r="M49" s="3">
         <v>2300</v>
@@ -3022,31 +3133,34 @@
         <v>2300</v>
       </c>
       <c r="O49" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="P49" s="3">
         <v>1900</v>
       </c>
       <c r="Q49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R49" s="3">
         <v>2100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83700</v>
+        <v>70000</v>
       </c>
       <c r="E52" s="3">
-        <v>69000</v>
+        <v>85100</v>
       </c>
       <c r="F52" s="3">
-        <v>88300</v>
+        <v>70200</v>
       </c>
       <c r="G52" s="3">
-        <v>70400</v>
+        <v>89800</v>
       </c>
       <c r="H52" s="3">
-        <v>34700</v>
+        <v>71600</v>
       </c>
       <c r="I52" s="3">
-        <v>18500</v>
+        <v>35300</v>
       </c>
       <c r="J52" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1700</v>
       </c>
       <c r="P52" s="3">
         <v>1700</v>
       </c>
       <c r="Q52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="R52" s="3">
         <v>1800</v>
       </c>
       <c r="S52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T52" s="3">
         <v>2100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1800</v>
       </c>
       <c r="U52" s="3">
         <v>1800</v>
       </c>
       <c r="V52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>345600</v>
+        <v>343800</v>
       </c>
       <c r="E54" s="3">
-        <v>340200</v>
+        <v>351400</v>
       </c>
       <c r="F54" s="3">
-        <v>309000</v>
+        <v>345900</v>
       </c>
       <c r="G54" s="3">
-        <v>277300</v>
+        <v>314200</v>
       </c>
       <c r="H54" s="3">
-        <v>241000</v>
+        <v>281900</v>
       </c>
       <c r="I54" s="3">
-        <v>215900</v>
+        <v>245000</v>
       </c>
       <c r="J54" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K54" s="3">
         <v>196300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>175300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>160400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>138700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>121500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>116300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>121100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>123300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>116300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>112800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,16 +3596,19 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3486,31 +3620,31 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8300</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>469700</v>
+        <v>469800</v>
       </c>
       <c r="E59" s="3">
-        <v>464700</v>
+        <v>477500</v>
       </c>
       <c r="F59" s="3">
-        <v>437700</v>
+        <v>472500</v>
       </c>
       <c r="G59" s="3">
-        <v>410300</v>
+        <v>445000</v>
       </c>
       <c r="H59" s="3">
-        <v>386900</v>
+        <v>417200</v>
       </c>
       <c r="I59" s="3">
-        <v>369900</v>
+        <v>393400</v>
       </c>
       <c r="J59" s="3">
+        <v>376100</v>
+      </c>
+      <c r="K59" s="3">
         <v>346200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>324900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>304100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>273800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>245200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>210900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>211400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>192100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>172400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>143000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>122000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>469700</v>
+        <v>469800</v>
       </c>
       <c r="E60" s="3">
-        <v>464700</v>
+        <v>477500</v>
       </c>
       <c r="F60" s="3">
-        <v>437700</v>
+        <v>472500</v>
       </c>
       <c r="G60" s="3">
-        <v>410300</v>
+        <v>445000</v>
       </c>
       <c r="H60" s="3">
-        <v>386900</v>
+        <v>417200</v>
       </c>
       <c r="I60" s="3">
-        <v>372400</v>
+        <v>393400</v>
       </c>
       <c r="J60" s="3">
+        <v>378600</v>
+      </c>
+      <c r="K60" s="3">
         <v>350800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>331400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>312500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>273800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>245200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>225000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>211700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>211400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>192100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>172400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>143000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>122000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3684,14 +3827,14 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>10000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,61 +3868,64 @@
         <v>9700</v>
       </c>
       <c r="E62" s="3">
-        <v>9000</v>
+        <v>9800</v>
       </c>
       <c r="F62" s="3">
-        <v>5200</v>
+        <v>9100</v>
       </c>
       <c r="G62" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="H62" s="3">
         <v>5000</v>
       </c>
       <c r="I62" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="J62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>479300</v>
+        <v>479500</v>
       </c>
       <c r="E66" s="3">
-        <v>473700</v>
+        <v>487300</v>
       </c>
       <c r="F66" s="3">
-        <v>442800</v>
+        <v>481700</v>
       </c>
       <c r="G66" s="3">
-        <v>415200</v>
+        <v>450300</v>
       </c>
       <c r="H66" s="3">
-        <v>391900</v>
+        <v>422200</v>
       </c>
       <c r="I66" s="3">
-        <v>377000</v>
+        <v>398500</v>
       </c>
       <c r="J66" s="3">
+        <v>383300</v>
+      </c>
+      <c r="K66" s="3">
         <v>356500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>335300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>316700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>286500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>260000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>228000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>215500</v>
       </c>
       <c r="Q66" s="3">
         <v>215500</v>
       </c>
       <c r="R66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="S66" s="3">
         <v>197000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>178400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>150100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>127200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4333,17 +4507,17 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3">
         <v>-260300</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
@@ -4351,14 +4525,17 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3">
         <v>-170600</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-133700</v>
+        <v>-135700</v>
       </c>
       <c r="E76" s="3">
-        <v>-133500</v>
+        <v>-135900</v>
       </c>
       <c r="F76" s="3">
-        <v>-133900</v>
+        <v>-135700</v>
       </c>
       <c r="G76" s="3">
-        <v>-138000</v>
+        <v>-136100</v>
       </c>
       <c r="H76" s="3">
-        <v>-150900</v>
+        <v>-140300</v>
       </c>
       <c r="I76" s="3">
-        <v>-161200</v>
+        <v>-153500</v>
       </c>
       <c r="J76" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-160200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-160000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-156300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-139800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-121200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-106500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-101700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-99200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-75900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-55000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-33700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-14400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1200</v>
+        <v>-4200</v>
       </c>
       <c r="E81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G81" s="3">
         <v>4900</v>
       </c>
-      <c r="F81" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>5000</v>
-      </c>
       <c r="H81" s="3">
-        <v>7800</v>
+        <v>5100</v>
       </c>
       <c r="I81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-23700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-21000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-20400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-22400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>90800</v>
+        <v>91500</v>
       </c>
       <c r="E8" s="3">
-        <v>94000</v>
+        <v>94700</v>
       </c>
       <c r="F8" s="3">
-        <v>83800</v>
+        <v>84400</v>
       </c>
       <c r="G8" s="3">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="H8" s="3">
-        <v>77300</v>
+        <v>77900</v>
       </c>
       <c r="I8" s="3">
-        <v>76300</v>
+        <v>76800</v>
       </c>
       <c r="J8" s="3">
-        <v>61500</v>
+        <v>62000</v>
       </c>
       <c r="K8" s="3">
         <v>62900</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="E9" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="F9" s="3">
-        <v>22900</v>
+        <v>23100</v>
       </c>
       <c r="G9" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="H9" s="3">
-        <v>22500</v>
+        <v>22600</v>
       </c>
       <c r="I9" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="J9" s="3">
-        <v>17300</v>
+        <v>17500</v>
       </c>
       <c r="K9" s="3">
         <v>17900</v>
@@ -893,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66000</v>
+        <v>66500</v>
       </c>
       <c r="E10" s="3">
-        <v>69000</v>
+        <v>69500</v>
       </c>
       <c r="F10" s="3">
-        <v>60900</v>
+        <v>61400</v>
       </c>
       <c r="G10" s="3">
-        <v>61300</v>
+        <v>61800</v>
       </c>
       <c r="H10" s="3">
-        <v>54800</v>
+        <v>55200</v>
       </c>
       <c r="I10" s="3">
-        <v>53700</v>
+        <v>54100</v>
       </c>
       <c r="J10" s="3">
-        <v>44200</v>
+        <v>44500</v>
       </c>
       <c r="K10" s="3">
         <v>45100</v>
@@ -983,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
         <v>7000</v>
@@ -995,10 +995,10 @@
         <v>6900</v>
       </c>
       <c r="H12" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I12" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="J12" s="3">
         <v>5800</v>
@@ -1265,25 +1265,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>96100</v>
+        <v>96800</v>
       </c>
       <c r="E17" s="3">
-        <v>93100</v>
+        <v>93800</v>
       </c>
       <c r="F17" s="3">
-        <v>82000</v>
+        <v>82700</v>
       </c>
       <c r="G17" s="3">
-        <v>81000</v>
+        <v>81600</v>
       </c>
       <c r="H17" s="3">
-        <v>73000</v>
+        <v>73600</v>
       </c>
       <c r="I17" s="3">
-        <v>69200</v>
+        <v>69800</v>
       </c>
       <c r="J17" s="3">
-        <v>62500</v>
+        <v>63000</v>
       </c>
       <c r="K17" s="3">
         <v>64000</v>
@@ -1345,7 +1345,7 @@
         <v>4300</v>
       </c>
       <c r="I18" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
@@ -1429,7 +1429,7 @@
         <v>1900</v>
       </c>
       <c r="G20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
@@ -1810,7 +1810,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E26" s="3">
         <v>1300</v>
@@ -1819,10 +1819,10 @@
         <v>5000</v>
       </c>
       <c r="G26" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H26" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I26" s="3">
         <v>8000</v>
@@ -1875,7 +1875,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E27" s="3">
         <v>1300</v>
@@ -1884,10 +1884,10 @@
         <v>5000</v>
       </c>
       <c r="G27" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H27" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I27" s="3">
         <v>8000</v>
@@ -2209,7 +2209,7 @@
         <v>-1900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
@@ -2265,7 +2265,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E33" s="3">
         <v>1300</v>
@@ -2274,10 +2274,10 @@
         <v>5000</v>
       </c>
       <c r="G33" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H33" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I33" s="3">
         <v>8000</v>
@@ -2395,7 +2395,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E35" s="3">
         <v>1300</v>
@@ -2404,10 +2404,10 @@
         <v>5000</v>
       </c>
       <c r="G35" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H35" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I35" s="3">
         <v>8000</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>132000</v>
+        <v>133000</v>
       </c>
       <c r="E41" s="3">
-        <v>120400</v>
+        <v>121400</v>
       </c>
       <c r="F41" s="3">
-        <v>125900</v>
+        <v>126800</v>
       </c>
       <c r="G41" s="3">
-        <v>93300</v>
+        <v>94000</v>
       </c>
       <c r="H41" s="3">
-        <v>84200</v>
+        <v>84800</v>
       </c>
       <c r="I41" s="3">
-        <v>85200</v>
+        <v>85800</v>
       </c>
       <c r="J41" s="3">
-        <v>76300</v>
+        <v>76800</v>
       </c>
       <c r="K41" s="3">
         <v>68000</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60700</v>
+        <v>61200</v>
       </c>
       <c r="E42" s="3">
-        <v>70300</v>
+        <v>70800</v>
       </c>
       <c r="F42" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="G42" s="3">
-        <v>69200</v>
+        <v>69700</v>
       </c>
       <c r="H42" s="3">
-        <v>69200</v>
+        <v>69700</v>
       </c>
       <c r="I42" s="3">
-        <v>70900</v>
+        <v>71400</v>
       </c>
       <c r="J42" s="3">
-        <v>70900</v>
+        <v>71500</v>
       </c>
       <c r="K42" s="3">
         <v>71500</v>
@@ -2840,25 +2840,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51300</v>
+        <v>51700</v>
       </c>
       <c r="E45" s="3">
-        <v>49300</v>
+        <v>49600</v>
       </c>
       <c r="F45" s="3">
-        <v>47300</v>
+        <v>47700</v>
       </c>
       <c r="G45" s="3">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="H45" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="I45" s="3">
-        <v>38800</v>
+        <v>39100</v>
       </c>
       <c r="J45" s="3">
-        <v>39200</v>
+        <v>39500</v>
       </c>
       <c r="K45" s="3">
         <v>39600</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>244300</v>
+        <v>246100</v>
       </c>
       <c r="E46" s="3">
-        <v>240200</v>
+        <v>242000</v>
       </c>
       <c r="F46" s="3">
-        <v>253300</v>
+        <v>255200</v>
       </c>
       <c r="G46" s="3">
-        <v>208400</v>
+        <v>210000</v>
       </c>
       <c r="H46" s="3">
-        <v>195500</v>
+        <v>197000</v>
       </c>
       <c r="I46" s="3">
-        <v>195000</v>
+        <v>196500</v>
       </c>
       <c r="J46" s="3">
-        <v>186400</v>
+        <v>187800</v>
       </c>
       <c r="K46" s="3">
         <v>179300</v>
@@ -3035,22 +3035,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="E48" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="F48" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="G48" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="H48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I48" s="3">
         <v>12800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>12700</v>
       </c>
       <c r="J48" s="3">
         <v>12100</v>
@@ -3100,13 +3100,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E49" s="3">
         <v>3600</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="E52" s="3">
-        <v>85100</v>
+        <v>85800</v>
       </c>
       <c r="F52" s="3">
-        <v>70200</v>
+        <v>70700</v>
       </c>
       <c r="G52" s="3">
-        <v>89800</v>
+        <v>90500</v>
       </c>
       <c r="H52" s="3">
-        <v>71600</v>
+        <v>72200</v>
       </c>
       <c r="I52" s="3">
-        <v>35300</v>
+        <v>35600</v>
       </c>
       <c r="J52" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="K52" s="3">
         <v>1100</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>343800</v>
+        <v>346500</v>
       </c>
       <c r="E54" s="3">
-        <v>351400</v>
+        <v>354100</v>
       </c>
       <c r="F54" s="3">
-        <v>345900</v>
+        <v>348600</v>
       </c>
       <c r="G54" s="3">
-        <v>314200</v>
+        <v>316600</v>
       </c>
       <c r="H54" s="3">
-        <v>281900</v>
+        <v>284100</v>
       </c>
       <c r="I54" s="3">
-        <v>245000</v>
+        <v>246900</v>
       </c>
       <c r="J54" s="3">
-        <v>219500</v>
+        <v>221200</v>
       </c>
       <c r="K54" s="3">
         <v>196300</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>469800</v>
+        <v>473400</v>
       </c>
       <c r="E59" s="3">
-        <v>477500</v>
+        <v>481200</v>
       </c>
       <c r="F59" s="3">
-        <v>472500</v>
+        <v>476100</v>
       </c>
       <c r="G59" s="3">
-        <v>445000</v>
+        <v>448400</v>
       </c>
       <c r="H59" s="3">
-        <v>417200</v>
+        <v>420400</v>
       </c>
       <c r="I59" s="3">
-        <v>393400</v>
+        <v>396400</v>
       </c>
       <c r="J59" s="3">
-        <v>376100</v>
+        <v>378900</v>
       </c>
       <c r="K59" s="3">
         <v>346200</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>469800</v>
+        <v>473400</v>
       </c>
       <c r="E60" s="3">
-        <v>477500</v>
+        <v>481200</v>
       </c>
       <c r="F60" s="3">
-        <v>472500</v>
+        <v>476100</v>
       </c>
       <c r="G60" s="3">
-        <v>445000</v>
+        <v>448400</v>
       </c>
       <c r="H60" s="3">
-        <v>417200</v>
+        <v>420400</v>
       </c>
       <c r="I60" s="3">
-        <v>393400</v>
+        <v>396400</v>
       </c>
       <c r="J60" s="3">
-        <v>378600</v>
+        <v>381600</v>
       </c>
       <c r="K60" s="3">
         <v>350800</v>
@@ -3865,19 +3865,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="E62" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="F62" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G62" s="3">
         <v>5300</v>
       </c>
       <c r="H62" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I62" s="3">
         <v>5100</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>479500</v>
+        <v>483200</v>
       </c>
       <c r="E66" s="3">
-        <v>487300</v>
+        <v>491100</v>
       </c>
       <c r="F66" s="3">
-        <v>481700</v>
+        <v>485300</v>
       </c>
       <c r="G66" s="3">
-        <v>450300</v>
+        <v>453700</v>
       </c>
       <c r="H66" s="3">
-        <v>422200</v>
+        <v>425400</v>
       </c>
       <c r="I66" s="3">
-        <v>398500</v>
+        <v>401500</v>
       </c>
       <c r="J66" s="3">
-        <v>383300</v>
+        <v>386300</v>
       </c>
       <c r="K66" s="3">
         <v>356500</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-135700</v>
+        <v>-136700</v>
       </c>
       <c r="E76" s="3">
-        <v>-135900</v>
+        <v>-137000</v>
       </c>
       <c r="F76" s="3">
-        <v>-135700</v>
+        <v>-136800</v>
       </c>
       <c r="G76" s="3">
-        <v>-136100</v>
+        <v>-137200</v>
       </c>
       <c r="H76" s="3">
-        <v>-140300</v>
+        <v>-141400</v>
       </c>
       <c r="I76" s="3">
-        <v>-153500</v>
+        <v>-154700</v>
       </c>
       <c r="J76" s="3">
-        <v>-163900</v>
+        <v>-165100</v>
       </c>
       <c r="K76" s="3">
         <v>-160200</v>
@@ -4935,7 +4935,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E81" s="3">
         <v>1300</v>
@@ -4944,10 +4944,10 @@
         <v>5000</v>
       </c>
       <c r="G81" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H81" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I81" s="3">
         <v>8000</v>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>91500</v>
+        <v>321500</v>
       </c>
       <c r="E8" s="3">
-        <v>94700</v>
+        <v>84500</v>
       </c>
       <c r="F8" s="3">
-        <v>84400</v>
+        <v>85400</v>
       </c>
       <c r="G8" s="3">
-        <v>85000</v>
+        <v>88500</v>
       </c>
       <c r="H8" s="3">
-        <v>77900</v>
+        <v>78900</v>
       </c>
       <c r="I8" s="3">
+        <v>79400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K8" s="3">
         <v>76800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>62000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>62900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>53900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>48700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>43300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>44000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>39400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>37700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>38700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>35000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>28500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>23200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>18600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24900</v>
+        <v>82200</v>
       </c>
       <c r="E9" s="3">
-        <v>25200</v>
+        <v>22400</v>
       </c>
       <c r="F9" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="G9" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="H9" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="I9" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K9" s="3">
         <v>22700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>17500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>16100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>16200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>13500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>13300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>14500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>13400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>10600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>6600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66500</v>
+        <v>239200</v>
       </c>
       <c r="E10" s="3">
-        <v>69500</v>
+        <v>62100</v>
       </c>
       <c r="F10" s="3">
-        <v>61400</v>
+        <v>62100</v>
       </c>
       <c r="G10" s="3">
-        <v>61800</v>
+        <v>64900</v>
       </c>
       <c r="H10" s="3">
-        <v>55200</v>
+        <v>57300</v>
       </c>
       <c r="I10" s="3">
+        <v>57700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K10" s="3">
         <v>54100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>44500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>45100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>37400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>32600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>27100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>28100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>25900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>24300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>24100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>21700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>17900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>15200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>12000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1002,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10300</v>
+        <v>26300</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>6000</v>
       </c>
       <c r="F12" s="3">
-        <v>7000</v>
+        <v>9600</v>
       </c>
       <c r="G12" s="3">
-        <v>6900</v>
+        <v>8500</v>
       </c>
       <c r="H12" s="3">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6600</v>
       </c>
       <c r="P12" s="3">
         <v>6200</v>
       </c>
       <c r="Q12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="R12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>9000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,49 +1140,55 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-1100</v>
+        <v>3200</v>
       </c>
       <c r="E14" s="3">
-        <v>-1700</v>
+        <v>4700</v>
       </c>
       <c r="F14" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-1200</v>
+        <v>-1600</v>
       </c>
       <c r="H14" s="3">
         <v>-1100</v>
       </c>
       <c r="I14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>16</v>
@@ -1163,17 +1202,23 @@
       <c r="T14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>96800</v>
+        <v>314200</v>
       </c>
       <c r="E17" s="3">
-        <v>93800</v>
+        <v>75900</v>
       </c>
       <c r="F17" s="3">
-        <v>82700</v>
+        <v>90400</v>
       </c>
       <c r="G17" s="3">
-        <v>81600</v>
+        <v>87600</v>
       </c>
       <c r="H17" s="3">
-        <v>73600</v>
+        <v>77200</v>
       </c>
       <c r="I17" s="3">
+        <v>76200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K17" s="3">
         <v>69800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>63000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>64000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>59200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>58400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>63100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>56900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>50100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>53500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>61400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>55800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>48900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>43600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>40600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-5300</v>
+        <v>7300</v>
       </c>
       <c r="E18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3400</v>
-      </c>
       <c r="H18" s="3">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="I18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-9700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-19800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-12900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-15900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-22700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-20700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-20400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-20400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-21900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,73 +1479,81 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>-900</v>
       </c>
       <c r="F20" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-800</v>
       </c>
       <c r="S20" s="3">
         <v>-200</v>
       </c>
       <c r="T20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-400</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1544,8 +1617,14 @@
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,96 +1688,108 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3800</v>
+        <v>11000</v>
       </c>
       <c r="E23" s="3">
-        <v>2200</v>
+        <v>7700</v>
       </c>
       <c r="F23" s="3">
-        <v>3600</v>
+        <v>-3600</v>
       </c>
       <c r="G23" s="3">
-        <v>5200</v>
+        <v>2100</v>
       </c>
       <c r="H23" s="3">
-        <v>5400</v>
+        <v>3400</v>
       </c>
       <c r="I23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K23" s="3">
         <v>8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-9900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-20200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-16000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-23500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-20900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-20500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-20300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-22400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>-6800</v>
       </c>
       <c r="E24" s="3">
-        <v>1000</v>
+        <v>-3000</v>
       </c>
       <c r="F24" s="3">
-        <v>-1400</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>-1300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1710,22 +1801,22 @@
         <v>200</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
@@ -1734,13 +1825,19 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4300</v>
+        <v>17800</v>
       </c>
       <c r="E26" s="3">
-        <v>1300</v>
+        <v>10700</v>
       </c>
       <c r="F26" s="3">
-        <v>5000</v>
+        <v>-4000</v>
       </c>
       <c r="G26" s="3">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="H26" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="I26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-20300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-16200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-23700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-20700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-20400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-22400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4300</v>
+        <v>17800</v>
       </c>
       <c r="E27" s="3">
-        <v>1300</v>
+        <v>10700</v>
       </c>
       <c r="F27" s="3">
-        <v>5000</v>
+        <v>-4000</v>
       </c>
       <c r="G27" s="3">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="H27" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="I27" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-20300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-16200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-23700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-21000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-20700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-20400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-22400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,18 +2155,18 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2327,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1500</v>
+        <v>-3700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1900</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1900</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>800</v>
       </c>
       <c r="S32" s="3">
         <v>200</v>
       </c>
       <c r="T32" s="3">
+        <v>800</v>
+      </c>
+      <c r="U32" s="3">
+        <v>200</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>400</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4300</v>
+        <v>17800</v>
       </c>
       <c r="E33" s="3">
-        <v>1300</v>
+        <v>10700</v>
       </c>
       <c r="F33" s="3">
-        <v>5000</v>
+        <v>-4000</v>
       </c>
       <c r="G33" s="3">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="H33" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="I33" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-16200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-23700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-21000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-20700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-20400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-22400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4300</v>
+        <v>17800</v>
       </c>
       <c r="E35" s="3">
-        <v>1300</v>
+        <v>10700</v>
       </c>
       <c r="F35" s="3">
-        <v>5000</v>
+        <v>-4000</v>
       </c>
       <c r="G35" s="3">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="H35" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="I35" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-16200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-23700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-21000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-20700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-20400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-22400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,129 +2745,137 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133000</v>
+        <v>38800</v>
       </c>
       <c r="E41" s="3">
-        <v>121400</v>
+        <v>92100</v>
       </c>
       <c r="F41" s="3">
-        <v>126800</v>
+        <v>124200</v>
       </c>
       <c r="G41" s="3">
-        <v>94000</v>
+        <v>113400</v>
       </c>
       <c r="H41" s="3">
-        <v>84800</v>
+        <v>118500</v>
       </c>
       <c r="I41" s="3">
+        <v>87800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K41" s="3">
         <v>85800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>76800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>68000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>67600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>67100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>83600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>85900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>77100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>74400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>77600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>85900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>104100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>96500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>94100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61200</v>
+        <v>85200</v>
       </c>
       <c r="E42" s="3">
-        <v>70800</v>
+        <v>90000</v>
       </c>
       <c r="F42" s="3">
-        <v>80400</v>
+        <v>57200</v>
       </c>
       <c r="G42" s="3">
-        <v>69700</v>
+        <v>66200</v>
       </c>
       <c r="H42" s="3">
-        <v>69700</v>
+        <v>75100</v>
       </c>
       <c r="I42" s="3">
+        <v>65100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K42" s="3">
         <v>71400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>71500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>71500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>52500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>39000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>19800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>9500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>7100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>14900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>11600</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,13 +2954,19 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2784,16 +2975,16 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2804,11 +2995,11 @@
       <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
@@ -2816,11 +3007,11 @@
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2834,138 +3025,156 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51700</v>
+        <v>18000</v>
       </c>
       <c r="E45" s="3">
-        <v>49600</v>
+        <v>43500</v>
       </c>
       <c r="F45" s="3">
-        <v>47700</v>
+        <v>48300</v>
       </c>
       <c r="G45" s="3">
-        <v>46100</v>
+        <v>46400</v>
       </c>
       <c r="H45" s="3">
-        <v>42300</v>
+        <v>44500</v>
       </c>
       <c r="I45" s="3">
-        <v>39100</v>
+        <v>43000</v>
       </c>
       <c r="J45" s="3">
         <v>39500</v>
       </c>
       <c r="K45" s="3">
+        <v>39100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="M45" s="3">
         <v>39600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>40300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>39500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>35200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>34100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>28300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>24900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>12600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>12600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>9700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>10900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>9600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>246100</v>
+        <v>142100</v>
       </c>
       <c r="E46" s="3">
-        <v>242000</v>
+        <v>225900</v>
       </c>
       <c r="F46" s="3">
-        <v>255200</v>
+        <v>229900</v>
       </c>
       <c r="G46" s="3">
-        <v>210000</v>
+        <v>226100</v>
       </c>
       <c r="H46" s="3">
-        <v>197000</v>
+        <v>238400</v>
       </c>
       <c r="I46" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K46" s="3">
         <v>196500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>187800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>179300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>160400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>145600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>138600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>129600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>112400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>103700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>105100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>110000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>113900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>107400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>103700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3238,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22700</v>
+        <v>7900</v>
       </c>
       <c r="E48" s="3">
-        <v>22700</v>
+        <v>12700</v>
       </c>
       <c r="F48" s="3">
-        <v>18800</v>
+        <v>21200</v>
       </c>
       <c r="G48" s="3">
-        <v>14100</v>
+        <v>21200</v>
       </c>
       <c r="H48" s="3">
-        <v>12900</v>
+        <v>17600</v>
       </c>
       <c r="I48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K48" s="3">
         <v>12800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7100</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H49" s="3">
         <v>3600</v>
       </c>
-      <c r="F49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J49" s="3">
         <v>1900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2200</v>
       </c>
       <c r="K49" s="3">
         <v>2000</v>
       </c>
       <c r="L49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N49" s="3">
         <v>2100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2300</v>
       </c>
       <c r="O49" s="3">
         <v>2300</v>
       </c>
       <c r="P49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R49" s="3">
         <v>1900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3522,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70500</v>
+        <v>24100</v>
       </c>
       <c r="E52" s="3">
-        <v>85800</v>
+        <v>10500</v>
       </c>
       <c r="F52" s="3">
-        <v>70700</v>
+        <v>65900</v>
       </c>
       <c r="G52" s="3">
-        <v>90500</v>
+        <v>80100</v>
       </c>
       <c r="H52" s="3">
-        <v>72200</v>
+        <v>66000</v>
       </c>
       <c r="I52" s="3">
+        <v>84500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K52" s="3">
         <v>35600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>19000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2100</v>
       </c>
       <c r="U52" s="3">
         <v>1800</v>
       </c>
       <c r="V52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W52" s="3">
         <v>1800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>346500</v>
+        <v>175800</v>
       </c>
       <c r="E54" s="3">
-        <v>354100</v>
+        <v>250900</v>
       </c>
       <c r="F54" s="3">
-        <v>348600</v>
+        <v>323600</v>
       </c>
       <c r="G54" s="3">
-        <v>316600</v>
+        <v>330800</v>
       </c>
       <c r="H54" s="3">
-        <v>284100</v>
+        <v>325600</v>
       </c>
       <c r="I54" s="3">
+        <v>295700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>265300</v>
+      </c>
+      <c r="K54" s="3">
         <v>246900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>221200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>196300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>175300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>160400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>146700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>138700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>121500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>113800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>116300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>121100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>123300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>116300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>112800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3793,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,58 +3860,64 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="O58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>6500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>8300</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
@@ -3664,138 +3931,156 @@
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>473400</v>
+        <v>279100</v>
       </c>
       <c r="E59" s="3">
-        <v>481200</v>
+        <v>361400</v>
       </c>
       <c r="F59" s="3">
-        <v>476100</v>
+        <v>442200</v>
       </c>
       <c r="G59" s="3">
-        <v>448400</v>
+        <v>449500</v>
       </c>
       <c r="H59" s="3">
-        <v>420400</v>
+        <v>444700</v>
       </c>
       <c r="I59" s="3">
+        <v>418800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>392700</v>
+      </c>
+      <c r="K59" s="3">
         <v>396400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>378900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>346200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>324900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>304100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>273800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>245200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>221500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>210900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>211400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>192100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>172400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>143000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>122000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>473400</v>
+        <v>279100</v>
       </c>
       <c r="E60" s="3">
-        <v>481200</v>
+        <v>361400</v>
       </c>
       <c r="F60" s="3">
-        <v>476100</v>
+        <v>442200</v>
       </c>
       <c r="G60" s="3">
-        <v>448400</v>
+        <v>449500</v>
       </c>
       <c r="H60" s="3">
-        <v>420400</v>
+        <v>444700</v>
       </c>
       <c r="I60" s="3">
+        <v>418800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>392700</v>
+      </c>
+      <c r="K60" s="3">
         <v>396400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>381600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>350800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>331400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>312500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>273800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>245200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>225000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>211700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>211400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>192100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>172400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>143000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>122000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3830,17 +4115,17 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>10000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>11100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3859,73 +4144,85 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9800</v>
+        <v>3200</v>
       </c>
       <c r="E62" s="3">
-        <v>9900</v>
+        <v>5600</v>
       </c>
       <c r="F62" s="3">
         <v>9200</v>
       </c>
       <c r="G62" s="3">
-        <v>5300</v>
+        <v>9200</v>
       </c>
       <c r="H62" s="3">
-        <v>5100</v>
+        <v>8600</v>
       </c>
       <c r="I62" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J62" s="3">
         <v>4700</v>
       </c>
       <c r="K62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>5000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>6000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>7000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>5200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>483200</v>
+        <v>282300</v>
       </c>
       <c r="E66" s="3">
-        <v>491100</v>
+        <v>367000</v>
       </c>
       <c r="F66" s="3">
-        <v>485300</v>
+        <v>451300</v>
       </c>
       <c r="G66" s="3">
-        <v>453700</v>
+        <v>458700</v>
       </c>
       <c r="H66" s="3">
-        <v>425400</v>
+        <v>453400</v>
       </c>
       <c r="I66" s="3">
+        <v>423800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K66" s="3">
         <v>401500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>386300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>356500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>335300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>316700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>286500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>260000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>228000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>215500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>215500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>197000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>178400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>150100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>127200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,31 +4810,37 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-284600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -4510,32 +4857,38 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-260300</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
+      <c r="T72" s="3">
+        <v>-260300</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V72" s="3">
-        <v>-170600</v>
+      <c r="V72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-170600</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-136700</v>
+        <v>-106600</v>
       </c>
       <c r="E76" s="3">
-        <v>-137000</v>
+        <v>-116100</v>
       </c>
       <c r="F76" s="3">
-        <v>-136800</v>
+        <v>-127700</v>
       </c>
       <c r="G76" s="3">
-        <v>-137200</v>
+        <v>-128000</v>
       </c>
       <c r="H76" s="3">
-        <v>-141400</v>
+        <v>-127800</v>
       </c>
       <c r="I76" s="3">
+        <v>-128100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-154700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-165100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-160200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-160000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-156300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-139800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-121200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-106500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-101700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-99200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-75900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-55000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-33700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-14400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4300</v>
+        <v>17800</v>
       </c>
       <c r="E81" s="3">
-        <v>1300</v>
+        <v>10700</v>
       </c>
       <c r="F81" s="3">
-        <v>5000</v>
+        <v>-4000</v>
       </c>
       <c r="G81" s="3">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="H81" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="I81" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-16200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-23700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-21000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-20700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-20400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-22400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5907,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6529,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6600,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>321500</v>
+        <v>9500</v>
       </c>
       <c r="E8" s="3">
-        <v>84500</v>
+        <v>2181500</v>
       </c>
       <c r="F8" s="3">
-        <v>85400</v>
+        <v>573600</v>
       </c>
       <c r="G8" s="3">
-        <v>88500</v>
+        <v>579800</v>
       </c>
       <c r="H8" s="3">
-        <v>78900</v>
+        <v>92400</v>
       </c>
       <c r="I8" s="3">
-        <v>79400</v>
+        <v>535100</v>
       </c>
       <c r="J8" s="3">
+        <v>538500</v>
+      </c>
+      <c r="K8" s="3">
         <v>72700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>62000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>53900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>48700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>37700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>38700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>35000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>82200</v>
+        <v>10800</v>
       </c>
       <c r="E9" s="3">
-        <v>22400</v>
+        <v>558000</v>
       </c>
       <c r="F9" s="3">
-        <v>23300</v>
+        <v>151900</v>
       </c>
       <c r="G9" s="3">
-        <v>23500</v>
+        <v>158100</v>
       </c>
       <c r="H9" s="3">
-        <v>21500</v>
+        <v>24600</v>
       </c>
       <c r="I9" s="3">
-        <v>21600</v>
+        <v>146100</v>
       </c>
       <c r="J9" s="3">
+        <v>146700</v>
+      </c>
+      <c r="K9" s="3">
         <v>21200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>239200</v>
+        <v>-1300</v>
       </c>
       <c r="E10" s="3">
-        <v>62100</v>
+        <v>1623500</v>
       </c>
       <c r="F10" s="3">
-        <v>62100</v>
+        <v>421700</v>
       </c>
       <c r="G10" s="3">
-        <v>64900</v>
+        <v>421700</v>
       </c>
       <c r="H10" s="3">
-        <v>57300</v>
+        <v>67800</v>
       </c>
       <c r="I10" s="3">
-        <v>57700</v>
+        <v>389000</v>
       </c>
       <c r="J10" s="3">
+        <v>391800</v>
+      </c>
+      <c r="K10" s="3">
         <v>51600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>32600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>25900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>21700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>12000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>26300</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="3">
-        <v>6000</v>
+        <v>178800</v>
       </c>
       <c r="F12" s="3">
-        <v>9600</v>
+        <v>40700</v>
       </c>
       <c r="G12" s="3">
-        <v>8500</v>
+        <v>65000</v>
       </c>
       <c r="H12" s="3">
-        <v>6600</v>
+        <v>8900</v>
       </c>
       <c r="I12" s="3">
-        <v>6400</v>
+        <v>44600</v>
       </c>
       <c r="J12" s="3">
-        <v>5700</v>
+        <v>43800</v>
       </c>
       <c r="K12" s="3">
         <v>5700</v>
       </c>
       <c r="L12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6200</v>
       </c>
       <c r="P12" s="3">
         <v>6200</v>
       </c>
       <c r="Q12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R12" s="3">
         <v>6600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,52 +1163,55 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>4700</v>
+        <v>21500</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>31800</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1600</v>
       </c>
-      <c r="H14" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>16</v>
@@ -1208,8 +1228,8 @@
       <c r="V14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>314200</v>
+        <v>31200</v>
       </c>
       <c r="E17" s="3">
-        <v>75900</v>
+        <v>2132200</v>
       </c>
       <c r="F17" s="3">
-        <v>90400</v>
+        <v>515200</v>
       </c>
       <c r="G17" s="3">
-        <v>87600</v>
+        <v>613600</v>
       </c>
       <c r="H17" s="3">
-        <v>77200</v>
+        <v>91500</v>
       </c>
       <c r="I17" s="3">
-        <v>76200</v>
+        <v>524100</v>
       </c>
       <c r="J17" s="3">
+        <v>517100</v>
+      </c>
+      <c r="K17" s="3">
         <v>68700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>64000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>63100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>56900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>50100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>61400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>55800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>48900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>43600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>40600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7300</v>
+        <v>-21700</v>
       </c>
       <c r="E18" s="3">
-        <v>8600</v>
+        <v>49300</v>
       </c>
       <c r="F18" s="3">
-        <v>-5000</v>
+        <v>58400</v>
       </c>
       <c r="G18" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
-        <v>1600</v>
-      </c>
       <c r="I18" s="3">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="J18" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K18" s="3">
         <v>4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1000</v>
       </c>
       <c r="M18" s="3">
         <v>-1000</v>
       </c>
       <c r="N18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-22700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-20700</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-20400</v>
       </c>
       <c r="W18" s="3">
         <v>-20400</v>
       </c>
       <c r="X18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
-        <v>-900</v>
+        <v>25100</v>
       </c>
       <c r="F20" s="3">
-        <v>1400</v>
+        <v>-6200</v>
       </c>
       <c r="G20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1623,31 +1660,34 @@
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1694,105 +1734,111 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11000</v>
+        <v>-19100</v>
       </c>
       <c r="E23" s="3">
-        <v>7700</v>
+        <v>74400</v>
       </c>
       <c r="F23" s="3">
-        <v>-3600</v>
+        <v>52200</v>
       </c>
       <c r="G23" s="3">
-        <v>2100</v>
+        <v>-24100</v>
       </c>
       <c r="H23" s="3">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="I23" s="3">
-        <v>4900</v>
+        <v>22900</v>
       </c>
       <c r="J23" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-23500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-20900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-20500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-20300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-6800</v>
+        <v>2100</v>
       </c>
       <c r="E24" s="3">
-        <v>-3000</v>
+        <v>-46100</v>
       </c>
       <c r="F24" s="3">
-        <v>400</v>
+        <v>-20500</v>
       </c>
       <c r="G24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
-        <v>-1300</v>
-      </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>-8900</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
@@ -1807,7 +1853,7 @@
         <v>200</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1816,19 +1862,19 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17800</v>
+        <v>-21200</v>
       </c>
       <c r="E26" s="3">
-        <v>10700</v>
+        <v>120600</v>
       </c>
       <c r="F26" s="3">
-        <v>-4000</v>
+        <v>72700</v>
       </c>
       <c r="G26" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
-        <v>4700</v>
-      </c>
       <c r="I26" s="3">
-        <v>4700</v>
+        <v>31800</v>
       </c>
       <c r="J26" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-23700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-21000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17800</v>
+        <v>-21200</v>
       </c>
       <c r="E27" s="3">
-        <v>10700</v>
+        <v>120600</v>
       </c>
       <c r="F27" s="3">
-        <v>-4000</v>
+        <v>72700</v>
       </c>
       <c r="G27" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
-        <v>4700</v>
-      </c>
       <c r="I27" s="3">
-        <v>4700</v>
+        <v>31800</v>
       </c>
       <c r="J27" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-23700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-21000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2161,14 +2222,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>16</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3700</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
-        <v>900</v>
+        <v>-25100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1400</v>
+        <v>6200</v>
       </c>
       <c r="G32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17800</v>
+        <v>-21200</v>
       </c>
       <c r="E33" s="3">
-        <v>10700</v>
+        <v>120600</v>
       </c>
       <c r="F33" s="3">
-        <v>-4000</v>
+        <v>72700</v>
       </c>
       <c r="G33" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
-        <v>4700</v>
-      </c>
       <c r="I33" s="3">
-        <v>4700</v>
+        <v>31800</v>
       </c>
       <c r="J33" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-23700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-21000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17800</v>
+        <v>-21200</v>
       </c>
       <c r="E35" s="3">
-        <v>10700</v>
+        <v>120600</v>
       </c>
       <c r="F35" s="3">
-        <v>-4000</v>
+        <v>72700</v>
       </c>
       <c r="G35" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
-        <v>4700</v>
-      </c>
       <c r="I35" s="3">
-        <v>4700</v>
+        <v>31800</v>
       </c>
       <c r="J35" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-23700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-21000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,138 +2833,142 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38800</v>
+        <v>54900</v>
       </c>
       <c r="E41" s="3">
-        <v>92100</v>
+        <v>41300</v>
       </c>
       <c r="F41" s="3">
-        <v>124200</v>
+        <v>624900</v>
       </c>
       <c r="G41" s="3">
-        <v>113400</v>
+        <v>842900</v>
       </c>
       <c r="H41" s="3">
-        <v>118500</v>
+        <v>769300</v>
       </c>
       <c r="I41" s="3">
-        <v>87800</v>
+        <v>804100</v>
       </c>
       <c r="J41" s="3">
+        <v>595900</v>
+      </c>
+      <c r="K41" s="3">
         <v>79200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>68000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>85900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>77100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>74400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>77600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>85900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>104100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>96500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>94100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>85200</v>
+        <v>48000</v>
       </c>
       <c r="E42" s="3">
-        <v>90000</v>
+        <v>90700</v>
       </c>
       <c r="F42" s="3">
-        <v>57200</v>
+        <v>610800</v>
       </c>
       <c r="G42" s="3">
-        <v>66200</v>
+        <v>387900</v>
       </c>
       <c r="H42" s="3">
-        <v>75100</v>
+        <v>449000</v>
       </c>
       <c r="I42" s="3">
+        <v>509600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>441900</v>
+      </c>
+      <c r="K42" s="3">
         <v>65100</v>
       </c>
-      <c r="J42" s="3">
-        <v>65100</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>71400</v>
-      </c>
-      <c r="L42" s="3">
-        <v>71500</v>
       </c>
       <c r="M42" s="3">
         <v>71500</v>
       </c>
       <c r="N42" s="3">
+        <v>71500</v>
+      </c>
+      <c r="O42" s="3">
         <v>52500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>39000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11600</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>16</v>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2972,37 +3068,37 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>1700</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>16</v>
@@ -3013,8 +3109,8 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3031,150 +3127,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="E45" s="3">
-        <v>43500</v>
+        <v>19200</v>
       </c>
       <c r="F45" s="3">
-        <v>48300</v>
+        <v>295300</v>
       </c>
       <c r="G45" s="3">
-        <v>46400</v>
+        <v>327500</v>
       </c>
       <c r="H45" s="3">
-        <v>44500</v>
+        <v>314700</v>
       </c>
       <c r="I45" s="3">
-        <v>43000</v>
+        <v>302100</v>
       </c>
       <c r="J45" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K45" s="3">
         <v>39500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>24900</v>
-      </c>
-      <c r="T45" s="3">
-        <v>12600</v>
       </c>
       <c r="U45" s="3">
         <v>12600</v>
       </c>
       <c r="V45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="W45" s="3">
         <v>9700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>142100</v>
+        <v>125500</v>
       </c>
       <c r="E46" s="3">
-        <v>225900</v>
+        <v>151300</v>
       </c>
       <c r="F46" s="3">
-        <v>229900</v>
+        <v>1532700</v>
       </c>
       <c r="G46" s="3">
-        <v>226100</v>
+        <v>1560200</v>
       </c>
       <c r="H46" s="3">
-        <v>238400</v>
+        <v>1534000</v>
       </c>
       <c r="I46" s="3">
-        <v>196200</v>
+        <v>1617700</v>
       </c>
       <c r="J46" s="3">
+        <v>1331400</v>
+      </c>
+      <c r="K46" s="3">
         <v>184000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>187800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>179300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>160400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>145600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>138600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>129600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>112400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>103700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>105100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>110000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>113900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>107400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>103700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,117 +3349,123 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7900</v>
+        <v>6600</v>
       </c>
       <c r="E48" s="3">
-        <v>12700</v>
+        <v>8500</v>
       </c>
       <c r="F48" s="3">
-        <v>21200</v>
+        <v>86300</v>
       </c>
       <c r="G48" s="3">
-        <v>21200</v>
+        <v>144000</v>
       </c>
       <c r="H48" s="3">
-        <v>17600</v>
+        <v>144000</v>
       </c>
       <c r="I48" s="3">
-        <v>13200</v>
+        <v>119200</v>
       </c>
       <c r="J48" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K48" s="3">
         <v>12000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>11600</v>
       </c>
       <c r="O48" s="3">
         <v>11600</v>
       </c>
       <c r="P48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
         <v>1800</v>
       </c>
       <c r="F49" s="3">
-        <v>6600</v>
+        <v>12200</v>
       </c>
       <c r="G49" s="3">
-        <v>3400</v>
+        <v>44900</v>
       </c>
       <c r="H49" s="3">
-        <v>3600</v>
+        <v>23000</v>
       </c>
       <c r="I49" s="3">
-        <v>1800</v>
+        <v>24500</v>
       </c>
       <c r="J49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2300</v>
       </c>
       <c r="P49" s="3">
         <v>2300</v>
@@ -3363,31 +3474,34 @@
         <v>2300</v>
       </c>
       <c r="R49" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="S49" s="3">
         <v>1900</v>
       </c>
       <c r="T49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U49" s="3">
         <v>2100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24100</v>
+        <v>23700</v>
       </c>
       <c r="E52" s="3">
-        <v>10500</v>
+        <v>25600</v>
       </c>
       <c r="F52" s="3">
-        <v>65900</v>
+        <v>71300</v>
       </c>
       <c r="G52" s="3">
-        <v>80100</v>
+        <v>447000</v>
       </c>
       <c r="H52" s="3">
-        <v>66000</v>
+        <v>543600</v>
       </c>
       <c r="I52" s="3">
-        <v>84500</v>
+        <v>448200</v>
       </c>
       <c r="J52" s="3">
+        <v>573500</v>
+      </c>
+      <c r="K52" s="3">
         <v>67400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1700</v>
       </c>
       <c r="S52" s="3">
         <v>1700</v>
       </c>
       <c r="T52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="U52" s="3">
         <v>1800</v>
       </c>
       <c r="V52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W52" s="3">
         <v>2100</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1800</v>
       </c>
       <c r="X52" s="3">
         <v>1800</v>
       </c>
       <c r="Y52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>175800</v>
+        <v>157400</v>
       </c>
       <c r="E54" s="3">
-        <v>250900</v>
+        <v>187100</v>
       </c>
       <c r="F54" s="3">
-        <v>323600</v>
+        <v>1702400</v>
       </c>
       <c r="G54" s="3">
-        <v>330800</v>
+        <v>2196100</v>
       </c>
       <c r="H54" s="3">
-        <v>325600</v>
+        <v>2244500</v>
       </c>
       <c r="I54" s="3">
-        <v>295700</v>
+        <v>2209500</v>
       </c>
       <c r="J54" s="3">
+        <v>2006600</v>
+      </c>
+      <c r="K54" s="3">
         <v>265300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>246900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>221200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>196300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>175300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>160400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>146700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>138700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>121500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>116300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>121100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>123300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>116300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>112800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3896,31 +4030,31 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8300</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
@@ -3937,150 +4071,159 @@
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>279100</v>
+        <v>291100</v>
       </c>
       <c r="E59" s="3">
-        <v>361400</v>
+        <v>2047300</v>
       </c>
       <c r="F59" s="3">
-        <v>442200</v>
+        <v>2452600</v>
       </c>
       <c r="G59" s="3">
-        <v>449500</v>
+        <v>3000500</v>
       </c>
       <c r="H59" s="3">
-        <v>444700</v>
+        <v>3050200</v>
       </c>
       <c r="I59" s="3">
-        <v>418800</v>
+        <v>3018100</v>
       </c>
       <c r="J59" s="3">
+        <v>2842300</v>
+      </c>
+      <c r="K59" s="3">
         <v>392700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>396400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>378900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>346200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>324900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>304100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>273800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>245200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>221500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>210900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>211400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>192100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>172400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>143000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>122000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>279100</v>
+        <v>291100</v>
       </c>
       <c r="E60" s="3">
-        <v>361400</v>
+        <v>297000</v>
       </c>
       <c r="F60" s="3">
-        <v>442200</v>
+        <v>2452600</v>
       </c>
       <c r="G60" s="3">
-        <v>449500</v>
+        <v>3000500</v>
       </c>
       <c r="H60" s="3">
-        <v>444700</v>
+        <v>3050200</v>
       </c>
       <c r="I60" s="3">
-        <v>418800</v>
+        <v>3018100</v>
       </c>
       <c r="J60" s="3">
+        <v>2842300</v>
+      </c>
+      <c r="K60" s="3">
         <v>392700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>396400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>381600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>350800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>331400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>312500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>273800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>245200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>225000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>211700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>211400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>192100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>172400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>143000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>122000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4121,14 +4264,14 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>10000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4150,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>38100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>62200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>62700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>58400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N62" s="3">
         <v>5600</v>
       </c>
-      <c r="F62" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="O62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="T62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="U62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>282300</v>
+        <v>294100</v>
       </c>
       <c r="E66" s="3">
-        <v>367000</v>
+        <v>300500</v>
       </c>
       <c r="F66" s="3">
-        <v>451300</v>
+        <v>2490600</v>
       </c>
       <c r="G66" s="3">
-        <v>458700</v>
+        <v>3062700</v>
       </c>
       <c r="H66" s="3">
-        <v>453400</v>
+        <v>3112900</v>
       </c>
       <c r="I66" s="3">
-        <v>423800</v>
+        <v>3076500</v>
       </c>
       <c r="J66" s="3">
+        <v>2876000</v>
+      </c>
+      <c r="K66" s="3">
         <v>397400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>401500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>386300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>356500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>335300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>316700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>286500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>260000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>228000</v>
-      </c>
-      <c r="S66" s="3">
-        <v>215500</v>
       </c>
       <c r="T66" s="3">
         <v>215500</v>
       </c>
       <c r="U66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="V66" s="3">
         <v>197000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>178400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>150100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>127200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,16 +4987,19 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-284600</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1931400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>16</v>
@@ -4842,8 +5016,8 @@
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -4863,17 +5037,17 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="3">
         <v>-260300</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
@@ -4881,14 +5055,17 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-170600</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-106600</v>
+        <v>-136700</v>
       </c>
       <c r="E76" s="3">
-        <v>-116100</v>
+        <v>-113400</v>
       </c>
       <c r="F76" s="3">
-        <v>-127700</v>
+        <v>-788200</v>
       </c>
       <c r="G76" s="3">
-        <v>-128000</v>
+        <v>-866600</v>
       </c>
       <c r="H76" s="3">
-        <v>-127800</v>
+        <v>-868300</v>
       </c>
       <c r="I76" s="3">
-        <v>-128100</v>
+        <v>-866900</v>
       </c>
       <c r="J76" s="3">
+        <v>-869400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-132000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-154700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-165100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-160200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-160000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-156300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-139800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-121200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-106500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-101700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-99200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-75900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-55000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-33700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17800</v>
+        <v>-21200</v>
       </c>
       <c r="E81" s="3">
-        <v>10700</v>
+        <v>120600</v>
       </c>
       <c r="F81" s="3">
-        <v>-4000</v>
+        <v>72700</v>
       </c>
       <c r="G81" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
-        <v>4700</v>
-      </c>
       <c r="I81" s="3">
-        <v>4700</v>
+        <v>31800</v>
       </c>
       <c r="J81" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-23700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-21000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9500</v>
+        <v>3500</v>
       </c>
       <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
         <v>2181500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>573600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>579800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>92400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>535100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>538500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>72700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>62900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>53900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>37700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>38700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>35000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>28500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10800</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>558000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>151900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>158100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>146100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>146700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-1300</v>
+        <v>2800</v>
       </c>
       <c r="E10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1623500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>421700</v>
       </c>
       <c r="G10" s="3">
         <v>421700</v>
       </c>
       <c r="H10" s="3">
+        <v>421700</v>
+      </c>
+      <c r="I10" s="3">
         <v>67800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>389000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>391800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>24300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>21700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>15200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>12000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>178800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>65000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>44600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>43800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5700</v>
       </c>
       <c r="L12" s="3">
         <v>5700</v>
       </c>
       <c r="M12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>6200</v>
       </c>
       <c r="Q12" s="3">
         <v>6200</v>
       </c>
       <c r="R12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S12" s="3">
         <v>6600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>9100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,56 +1183,59 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>21500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>31800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-7400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-7600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1231,8 +1251,8 @@
       <c r="W14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>31200</v>
+        <v>7600</v>
       </c>
       <c r="E17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2132200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>515200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>613600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>91500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>524100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>517100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>64000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>56900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>50100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>53500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>61400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>55800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>48900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>43600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>40600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-21700</v>
+        <v>-4100</v>
       </c>
       <c r="E18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F18" s="3">
         <v>49300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1000</v>
       </c>
       <c r="N18" s="3">
         <v>-1000</v>
       </c>
       <c r="O18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-12900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-15900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-22700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-20700</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-20400</v>
       </c>
       <c r="X18" s="3">
         <v>-20400</v>
       </c>
       <c r="Y18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-21900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>25100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,16 +1700,19 @@
       <c r="Z21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -1680,17 +1720,17 @@
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1737,111 +1777,117 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19100</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F23" s="3">
         <v>74400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-23500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-20900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-20500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-46100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-20500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
@@ -1856,7 +1902,7 @@
         <v>200</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1865,19 +1911,19 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>100</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-21200</v>
+        <v>-4600</v>
       </c>
       <c r="E26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F26" s="3">
         <v>120600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-16200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-23700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-21000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-21200</v>
+        <v>-4600</v>
       </c>
       <c r="E27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F27" s="3">
         <v>120600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>72700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-23700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-21000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,31 +2239,34 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-10400</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-17700</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2225,14 +2286,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>16</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-25100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>72700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-23700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-21000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>72700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-23700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-21000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,145 +2920,149 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E41" s="3">
         <v>54900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>624900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>842900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>769300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>804100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>595900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>85800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>68000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>83600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>85900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>77100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>74400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>77600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>85900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>104100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>96500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>94100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3">
         <v>48000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>90700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>610800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>387900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>449000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>509600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>441900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>71400</v>
-      </c>
-      <c r="M42" s="3">
-        <v>71500</v>
       </c>
       <c r="N42" s="3">
         <v>71500</v>
       </c>
       <c r="O42" s="3">
+        <v>71500</v>
+      </c>
+      <c r="P42" s="3">
         <v>52500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>39000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11600</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,53 +3149,56 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>200</v>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3112,8 +3208,8 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3130,156 +3226,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
         <v>22500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>295300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>327500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>314700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>302100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>292100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>39500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24900</v>
-      </c>
-      <c r="U45" s="3">
-        <v>12600</v>
       </c>
       <c r="V45" s="3">
         <v>12600</v>
       </c>
       <c r="W45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="X45" s="3">
         <v>9700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E46" s="3">
         <v>125500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>151300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1532700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1560200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1534000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1617700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1331400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>196500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>187800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>179300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>160400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>145600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>138600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>129600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>112400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>103700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>105100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>110000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>113900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>107400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>103700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,123 +3457,129 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>6600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>86300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>144000</v>
       </c>
       <c r="H48" s="3">
         <v>144000</v>
       </c>
       <c r="I48" s="3">
+        <v>144000</v>
+      </c>
+      <c r="J48" s="3">
         <v>119200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>89300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>11600</v>
       </c>
       <c r="P48" s="3">
         <v>11600</v>
       </c>
       <c r="Q48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="R48" s="3">
         <v>5100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2300</v>
       </c>
       <c r="Q49" s="3">
         <v>2300</v>
@@ -3477,31 +3588,34 @@
         <v>2300</v>
       </c>
       <c r="S49" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="T49" s="3">
         <v>1900</v>
       </c>
       <c r="U49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V49" s="3">
         <v>2100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>23700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>447000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>543600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>448200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>573500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1700</v>
       </c>
       <c r="T52" s="3">
         <v>1700</v>
       </c>
       <c r="U52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="V52" s="3">
         <v>1800</v>
       </c>
       <c r="W52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X52" s="3">
         <v>2100</v>
-      </c>
-      <c r="X52" s="3">
-        <v>1800</v>
       </c>
       <c r="Y52" s="3">
         <v>1800</v>
       </c>
       <c r="Z52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E54" s="3">
         <v>157400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>187100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1702400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2196100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2244500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2209500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2006600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>265300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>246900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>221200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>196300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>175300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>160400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>146700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>138700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>121500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>116300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>121100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>123300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>116300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>112800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4033,32 +4167,32 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4074,156 +4208,165 @@
       <c r="Z58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E59" s="3">
         <v>291100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2047300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2452600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3050200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3018100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2842300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>392700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>396400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>378900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>346200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>324900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>304100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>273800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>245200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>221500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>210900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>211400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>192100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>172400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>143000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>122000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E60" s="3">
         <v>291100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>297000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2452600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3050200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3018100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2842300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>392700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>396400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>381600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>350800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>331400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>312500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>273800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>245200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>225000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>211700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>211400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>192100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>172400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>143000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>122000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4267,14 +4410,14 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>10000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4296,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E66" s="3">
         <v>294100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2490600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3062700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3112900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3076500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2876000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>397400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>401500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>386300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>356500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>335300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>316700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>286500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>260000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>228000</v>
-      </c>
-      <c r="T66" s="3">
-        <v>215500</v>
       </c>
       <c r="U66" s="3">
         <v>215500</v>
       </c>
       <c r="V66" s="3">
+        <v>215500</v>
+      </c>
+      <c r="W66" s="3">
         <v>197000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>178400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>150100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>127200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,20 +5161,23 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1931400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5019,8 +5193,8 @@
       <c r="K72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -5040,32 +5214,35 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
+      <c r="S72" s="3">
+        <v>0</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3">
         <v>-260300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-170600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-136700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-113400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-788200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-866600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-868300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-866900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-869400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-132000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-154700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-165100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-160200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-160000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-156300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-139800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-121200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-106500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-101700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-99200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-75900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-55000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-33700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-14400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>72700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-23700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-21000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/COE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>COE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,384 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>2181500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>573600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>579800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>92400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>535100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>538500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>72700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>76800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>62000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>62900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>53900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>48700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>43300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>44000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>39400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>37700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>38700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>35000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>28500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
         <v>23200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AC8" s="3">
         <v>18600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AD8" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>558000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>151900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>158100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>24600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>146100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>146700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>21200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>22700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>17500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>17900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>16400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>16100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>16200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>15900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>13500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>13300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>14500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>13400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>10600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>8000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AC9" s="3">
         <v>6600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AD9" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>1623500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>421700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>421700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>67800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>389000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>391800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>51600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>54100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>44500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>45100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>37400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>32600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>27100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>28100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>25900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>24300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>24100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>21700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>17900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AB10" s="3">
         <v>15200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AC10" s="3">
         <v>12000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AD10" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1070,97 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>178800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>40700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>65000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>44600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>43800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>5700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>5700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <v>5800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="R12" s="3">
         <v>5900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>6600</v>
       </c>
       <c r="T12" s="3">
         <v>6200</v>
       </c>
       <c r="U12" s="3">
-        <v>7500</v>
+        <v>6200</v>
       </c>
       <c r="V12" s="3">
-        <v>9000</v>
+        <v>6600</v>
       </c>
       <c r="W12" s="3">
-        <v>9100</v>
+        <v>6200</v>
       </c>
       <c r="X12" s="3">
         <v>7500</v>
       </c>
       <c r="Y12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="AB12" s="3">
         <v>7400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AC12" s="3">
         <v>6700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AD12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,65 +1236,74 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>21500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>31800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-7400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>-7600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>-1600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1254,17 +1313,26 @@
       <c r="X14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1408,17 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1443,183 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>2132200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>515200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>613600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>91500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>524100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>517100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>68700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>69800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>63000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>64000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>59200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>58400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>63100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>56900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>50100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>53500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>61400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>55800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>48900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AB17" s="3">
         <v>43600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AC17" s="3">
         <v>40600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AD17" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>49300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>58400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-33800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>11000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>21400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-9700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-19800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-12900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-10700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>-15900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>-22700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>-20700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AC18" s="3">
         <v>-21900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AD18" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1647,97 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>25100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>9600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>11900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>11700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AC20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1703,16 +1813,25 @@
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -1720,11 +1839,11 @@
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
@@ -1735,11 +1854,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1780,85 +1899,103 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>74400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>52200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-24100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>22900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>33200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-9900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-20200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-13000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-10200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-16000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-23500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>-20900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>-20300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AD23" s="3">
         <v>-17900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,34 +2006,34 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-46100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>-20500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>-8900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
@@ -1905,19 +2042,19 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
@@ -1926,16 +2063,25 @@
         <v>200</v>
       </c>
       <c r="Y24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>100</v>
       </c>
       <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2157,189 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>120600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>72700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>31800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>31600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-10100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-20300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-13100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-10300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-16200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-23700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>-21000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AD26" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>120600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>72700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>31800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>31600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-10100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-20300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-13100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-10300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-16200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-23700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>-21000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AD27" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,40 +2415,49 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-10400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="H29" s="3">
         <v>-17700</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2289,20 +2471,20 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>16</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2319,8 +2501,17 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2587,17 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2673,189 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-25100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-9600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-11900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-11700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AC32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-21200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>120600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>72700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>31800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>31600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-10100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-20300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-13100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-10300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-16200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-23700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>-21000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AD33" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2931,194 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-21200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>120600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>72700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>31800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>31600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-10100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-20300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-13100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-10300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-16200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-23700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>-21000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AD35" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3146,11 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,185 +3178,206 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>21300</v>
+      </c>
+      <c r="G41" s="3">
         <v>21100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>54900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>41300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>624900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>842900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>769300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>804100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>595900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>79200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>85800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>76800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>68000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>67600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>67100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>83600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>85900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>77100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>74400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>77600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>85900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>104100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AB41" s="3">
         <v>96500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AC41" s="3">
         <v>94100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AD41" s="3">
         <v>90500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="3">
         <v>48000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <v>90700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="J42" s="3">
         <v>610800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="K42" s="3">
         <v>387900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>449000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>509600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>441900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>65100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>71400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="Q42" s="3">
         <v>71500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="R42" s="3">
         <v>71500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="S42" s="3">
         <v>52500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>39000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>19800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="V42" s="3">
         <v>9500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="W42" s="3">
         <v>7100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="X42" s="3">
         <v>4300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="Y42" s="3">
         <v>14900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Z42" s="3">
         <v>11600</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3152,73 +3430,82 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>1600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>16</v>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3229,162 +3516,189 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>22500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>19200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>295300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>327500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>314700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>302100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>292100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>39500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>39100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>39500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>39600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>40300</v>
       </c>
       <c r="Q45" s="3">
         <v>39500</v>
       </c>
       <c r="R45" s="3">
+        <v>39600</v>
+      </c>
+      <c r="S45" s="3">
+        <v>40300</v>
+      </c>
+      <c r="T45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="U45" s="3">
         <v>35200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>34100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>28300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="X45" s="3">
         <v>24900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="Y45" s="3">
         <v>12600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Z45" s="3">
         <v>12600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="AA45" s="3">
         <v>9700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AB45" s="3">
         <v>10900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AC45" s="3">
         <v>9600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AD45" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G46" s="3">
         <v>26100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>125500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>151300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1532700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>1560200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1534000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>1617700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>1331400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>184000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>196500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>187800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>179300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>160400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>145600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>138600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>129600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>112400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>103700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>105100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>110000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>113900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AB46" s="3">
         <v>107400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AC46" s="3">
         <v>103700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AD46" s="3">
         <v>98200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3774,189 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>6600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>86300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>144000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>144000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>119200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>89300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>12000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>12800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>12100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>13900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>11600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>11600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>5100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>5000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>5500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>6500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>7300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>7100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>5900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AB48" s="3">
         <v>5800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AC48" s="3">
         <v>6000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AD48" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>12200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>44900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>23000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>24500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>12300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>2000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>2000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>2100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="T49" s="3">
         <v>2300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>2300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="V49" s="3">
         <v>2300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="W49" s="3">
         <v>1900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="X49" s="3">
         <v>1900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Y49" s="3">
         <v>2100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Z49" s="3">
         <v>2200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="AA49" s="3">
         <v>1500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AB49" s="3">
         <v>1400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AC49" s="3">
         <v>1300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AD49" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +4032,17 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4118,17 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,64 +4136,64 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>23700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>25600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>71300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>447000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>543600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>448200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>573500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>67400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>35600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>19000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1700</v>
       </c>
       <c r="V52" s="3">
         <v>1800</v>
       </c>
       <c r="W52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="X52" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="Y52" s="3">
         <v>1800</v>
@@ -3843,10 +4202,19 @@
         <v>1800</v>
       </c>
       <c r="AA52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4290,103 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>26900</v>
+      </c>
+      <c r="G54" s="3">
         <v>26500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>157400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>187100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1702400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>2196100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>2244500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>2209500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>2006600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>265300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>246900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>221200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>196300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>175300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>160400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>146700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>138700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>121500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>113800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>116300</v>
-      </c>
-      <c r="W54" s="3">
-        <v>121100</v>
-      </c>
-      <c r="X54" s="3">
-        <v>123300</v>
       </c>
       <c r="Y54" s="3">
         <v>116300</v>
       </c>
       <c r="Z54" s="3">
+        <v>121100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>123300</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>116300</v>
+      </c>
+      <c r="AC54" s="3">
         <v>112800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AD54" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4414,11 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4446,11 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,8 +4526,17 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4170,38 +4571,38 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>6500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>8300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4211,162 +4612,189 @@
       <c r="AA58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G59" s="3">
         <v>14800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>291100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>2047300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>2452600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>3000500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3050200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3018100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2842300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>392700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>396400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>378900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>346200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>324900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>304100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>273800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>245200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>221500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>210900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>211400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>192100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>172400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AB59" s="3">
         <v>143000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AC59" s="3">
         <v>122000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AD59" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G60" s="3">
         <v>14800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>291100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>297000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2452600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>3000500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>3050200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>3018100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2842300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>392700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>396400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>381600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>350800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>331400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>312500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>273800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>245200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>225000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>211700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>211400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>192100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>172400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>143000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>122000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4413,20 +4841,20 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>10000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>11100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4442,85 +4870,103 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>38100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>62200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>62700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>58400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>33700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>4700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>5100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>4700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>5600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>3900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>4200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>2600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>3600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>3000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>3700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>4100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>5000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>6000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AB62" s="3">
         <v>7000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AC62" s="3">
         <v>5200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AD62" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +5042,17 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +5128,17 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5214,103 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G66" s="3">
         <v>15100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>294100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>300500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2490600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>3062700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>3112900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>3076500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>2876000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>397400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>401500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>386300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>356500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>335300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>316700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>286500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>260000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>228000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>215500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>215500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>197000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>178400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>150100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>127200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>101800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5338,11 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5418,17 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5504,17 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5590,17 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,29 +5676,38 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="E72" s="3">
+        <v>-331200</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1931400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5196,14 +5717,14 @@
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -5217,32 +5738,41 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
       </c>
       <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-260300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-170600</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5848,17 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5934,17 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +6020,103 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G76" s="3">
         <v>11400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-136700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-113400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-788200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-866600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-868300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-866900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-869400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-132000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-154700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-165100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-160200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-156300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-139800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-121200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-106500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>-101700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>-99200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>-75900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>-33700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>-14400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6192,194 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-21200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>120600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>72700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>31800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>31600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-10100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-20300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-13100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-10300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-16200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-23700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>-21000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>-20400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>-22400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AD81" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6407,11 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6487,17 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6573,17 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6659,17 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6745,17 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6831,17 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6917,17 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +7003,17 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +7041,11 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +7121,17 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +7207,17 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7293,17 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +7379,17 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7417,11 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7497,17 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7583,17 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7669,17 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7755,17 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7841,17 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7927,17 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +8011,15 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
